--- a/cdf_star_by_state_18_19new1.xlsx
+++ b/cdf_star_by_state_18_19new1.xlsx
@@ -83,7 +83,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -135,8 +135,8 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -170,7 +170,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -751,7 +750,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1675,8 +1673,8 @@
   <dimension ref="A1:L239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1747,7 +1745,7 @@
         <v>5.7985242456197739E-3</v>
       </c>
       <c r="E3" s="8">
-        <f>D3/SUM($D$2:$D$13)*$E$13+E2</f>
+        <f t="shared" ref="E3:E12" si="0">D3/SUM($D$2:$D$13)*$E$13+E2</f>
         <v>6.3907969056123193E-3</v>
       </c>
       <c r="F3" s="8">
@@ -1773,11 +1771,11 @@
         <v>7.4552451260387897E-3</v>
       </c>
       <c r="E4" s="8">
-        <f>D4/SUM($D$2:$D$13)*$E$13+E3</f>
+        <f t="shared" si="0"/>
         <v>1.4607535417667555E-2</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F26" si="0">E4-E3</f>
+        <f t="shared" ref="F4:F26" si="1">E4-E3</f>
         <v>8.2167385120552362E-3</v>
       </c>
       <c r="G4" s="1"/>
@@ -1799,11 +1797,11 @@
         <v>1.6567213460803032E-2</v>
       </c>
       <c r="E5" s="8">
-        <f>D5/SUM($D$2:$D$13)*$E$13+E4</f>
+        <f t="shared" si="0"/>
         <v>3.2866956614345175E-2</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.825942119667762E-2</v>
       </c>
       <c r="G5" s="1"/>
@@ -1825,11 +1823,11 @@
         <v>1.2425408698618412E-2</v>
       </c>
       <c r="E6" s="8">
-        <f>D6/SUM($D$2:$D$13)*$E$13+E5</f>
+        <f t="shared" si="0"/>
         <v>4.6561520972178846E-2</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3694564357833672E-2</v>
       </c>
       <c r="G6" s="1"/>
@@ -1852,11 +1850,11 @@
         <v>4.1418030858039856E-2</v>
       </c>
       <c r="E7" s="8">
-        <f>D7/SUM($D$2:$D$13)*$E$13+E6</f>
+        <f t="shared" si="0"/>
         <v>9.2210070884523807E-2</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.564854991234496E-2</v>
       </c>
       <c r="G7" s="1"/>
@@ -1878,11 +1876,11 @@
         <v>0.10440013557672501</v>
       </c>
       <c r="E8" s="8">
-        <f>D8/SUM($D$2:$D$13)*$E$13+E7</f>
+        <f t="shared" si="0"/>
         <v>0.20727384144532573</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11506377056080193</v>
       </c>
       <c r="G8" s="1"/>
@@ -1904,11 +1902,11 @@
         <v>0.10822590440511703</v>
       </c>
       <c r="E9" s="8">
-        <f>D9/SUM($D$2:$D$13)*$E$13+E8</f>
+        <f t="shared" si="0"/>
         <v>0.32655415237992108</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11928031093459535</v>
       </c>
       <c r="G9" s="1"/>
@@ -1930,11 +1928,11 @@
         <v>0.10753744840621948</v>
       </c>
       <c r="E10" s="8">
-        <f>D10/SUM($D$2:$D$13)*$E$13+E9</f>
+        <f t="shared" si="0"/>
         <v>0.44507568706714135</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11852153468722026</v>
       </c>
       <c r="G10" s="1"/>
@@ -1956,11 +1954,11 @@
         <v>0.14936161041259766</v>
       </c>
       <c r="E11" s="8">
-        <f>D11/SUM($D$2:$D$13)*$E$13+E10</f>
+        <f t="shared" si="0"/>
         <v>0.60969338584854504</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1646176987814037</v>
       </c>
       <c r="G11" s="1"/>
@@ -1982,11 +1980,11 @@
         <v>0.15506528317928314</v>
       </c>
       <c r="E12" s="8">
-        <f>D12/SUM($D$2:$D$13)*$E$13+E11</f>
+        <f t="shared" si="0"/>
         <v>0.78059734174019435</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17090395589164931</v>
       </c>
       <c r="G12" s="1"/>
@@ -2011,7 +2009,7 @@
         <v>0.92</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13940265825980569</v>
       </c>
       <c r="G13" s="1"/>
@@ -2034,11 +2032,11 @@
         <v>7.4797399342060089E-2</v>
       </c>
       <c r="E14" s="8">
-        <f>D14/SUM($D$14:$D$26)*(1-$E$13)+E13</f>
+        <f t="shared" ref="E14:E26" si="2">D14/SUM($D$14:$D$26)*(1-$E$13)+E13</f>
         <v>0.95620794781750906</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6207947817509023E-2</v>
       </c>
       <c r="G14" s="10"/>
@@ -2060,11 +2058,11 @@
         <v>3.1984686851501465E-2</v>
       </c>
       <c r="E15" s="8">
-        <f>D15/SUM($D$14:$D$26)*(1-$E$13)+E14</f>
+        <f t="shared" si="2"/>
         <v>0.9716911047543213</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5483156936812237E-2</v>
       </c>
       <c r="G15" s="1"/>
@@ -2086,11 +2084,11 @@
         <v>2.6106724515557289E-2</v>
       </c>
       <c r="E16" s="8">
-        <f>D16/SUM($D$14:$D$26)*(1-$E$13)+E15</f>
+        <f t="shared" si="2"/>
         <v>0.98432885589620944</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2637751141888143E-2</v>
       </c>
     </row>
@@ -2108,11 +2106,11 @@
         <v>1.5291758812963963E-2</v>
       </c>
       <c r="E17" s="8">
-        <f>D17/SUM($D$14:$D$26)*(1-$E$13)+E16</f>
+        <f t="shared" si="2"/>
         <v>0.99173129515222758</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.402439256018134E-3</v>
       </c>
     </row>
@@ -2130,11 +2128,11 @@
         <v>8.7768472731113434E-3</v>
       </c>
       <c r="E18" s="8">
-        <f>D18/SUM($D$14:$D$26)*(1-$E$13)+E17</f>
+        <f t="shared" si="2"/>
         <v>0.99597999404901338</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2486988967858075E-3</v>
       </c>
       <c r="G18" s="3"/>
@@ -2153,11 +2151,11 @@
         <v>5.6759482249617577E-3</v>
       </c>
       <c r="E19" s="8">
-        <f>D19/SUM($D$14:$D$26)*(1-$E$13)+E18</f>
+        <f t="shared" si="2"/>
         <v>0.99872760879166567</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7476147426522823E-3</v>
       </c>
     </row>
@@ -2175,11 +2173,11 @@
         <v>9.6995331114158034E-4</v>
       </c>
       <c r="E20" s="8">
-        <f>D20/SUM($D$14:$D$26)*(1-$E$13)+E19</f>
+        <f t="shared" si="2"/>
         <v>0.99919714408546145</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.695352937957864E-4</v>
       </c>
     </row>
@@ -2197,11 +2195,11 @@
         <v>2.322832151548937E-4</v>
       </c>
       <c r="E21" s="8">
-        <f>D21/SUM($D$14:$D$26)*(1-$E$13)+E20</f>
+        <f t="shared" si="2"/>
         <v>0.9993095878148851</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1244372942365022E-4</v>
       </c>
     </row>
@@ -2219,11 +2217,11 @@
         <v>5.2523915655910969E-4</v>
       </c>
       <c r="E22" s="8">
-        <f>D22/SUM($D$14:$D$26)*(1-$E$13)+E21</f>
+        <f t="shared" si="2"/>
         <v>0.99956384574550428</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5425793061917279E-4</v>
       </c>
     </row>
@@ -2241,11 +2239,11 @@
         <v>8.3911651745438576E-4</v>
       </c>
       <c r="E23" s="8">
-        <f>D23/SUM($D$14:$D$26)*(1-$E$13)+E22</f>
+        <f t="shared" si="2"/>
         <v>0.99997004552442781</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0619977892353276E-4</v>
       </c>
     </row>
@@ -2263,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="8">
-        <f>D24/SUM($D$14:$D$26)*(1-$E$13)+E23</f>
+        <f t="shared" si="2"/>
         <v>0.99997004552442781</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2285,11 +2283,11 @@
         <v>6.1879145505372435E-5</v>
       </c>
       <c r="E25" s="8">
-        <f>D25/SUM($D$14:$D$26)*(1-$E$13)+E24</f>
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9954475572080419E-5</v>
       </c>
     </row>
@@ -2307,11 +2305,11 @@
         <v>0</v>
       </c>
       <c r="E26" s="8">
-        <f>D26/SUM($D$14:$D$26)*(1-$E$13)+E25</f>
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G26" s="8"/>
@@ -2352,7 +2350,7 @@
         <v>7.4037136510014534E-3</v>
       </c>
       <c r="E28" s="8">
-        <f>D28/SUM($D$27:$D$35)*$E$35+E27</f>
+        <f t="shared" ref="E28:E34" si="3">D28/SUM($D$27:$D$35)*$E$35+E27</f>
         <v>1.5913018296931706E-2</v>
       </c>
       <c r="F28" s="8">
@@ -2374,11 +2372,11 @@
         <v>1.1105570010840893E-2</v>
       </c>
       <c r="E29" s="8">
-        <f>D29/SUM($D$27:$D$35)*$E$35+E28</f>
+        <f t="shared" si="3"/>
         <v>2.8676974730628947E-2</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" ref="F29:F51" si="1">E29-E28</f>
+        <f t="shared" ref="F29:F51" si="4">E29-E28</f>
         <v>1.2763956433697241E-2</v>
       </c>
     </row>
@@ -2396,11 +2394,11 @@
         <v>2.2211715579032898E-2</v>
       </c>
       <c r="E30" s="8">
-        <f>D30/SUM($D$27:$D$35)*$E$35+E29</f>
+        <f t="shared" si="3"/>
         <v>5.4205549102921205E-2</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.5528574372292258E-2</v>
       </c>
     </row>
@@ -2418,11 +2416,11 @@
         <v>4.4423777610063553E-2</v>
       </c>
       <c r="E31" s="8">
-        <f>D31/SUM($D$27:$D$35)*$E$35+E30</f>
+        <f t="shared" si="3"/>
         <v>0.1052630960349199</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.1057546931998696E-2</v>
       </c>
     </row>
@@ -2440,15 +2438,15 @@
         <v>8.5142709314823151E-2</v>
       </c>
       <c r="E32" s="8">
-        <f>D32/SUM($D$27:$D$35)*$E$35+E31</f>
+        <f t="shared" si="3"/>
         <v>0.20312010213910847</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.7857006104188571E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>13</v>
       </c>
@@ -2462,15 +2460,15 @@
         <v>0.14437822997570038</v>
       </c>
       <c r="E33" s="8">
-        <f>D33/SUM($D$27:$D$35)*$E$35+E32</f>
+        <f t="shared" si="3"/>
         <v>0.36905822468349325</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.16593812254438478</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>14</v>
       </c>
@@ -2484,15 +2482,15 @@
         <v>0.21911890804767609</v>
       </c>
       <c r="E34" s="8">
-        <f>D34/SUM($D$27:$D$35)*$E$35+E33</f>
+        <f t="shared" si="3"/>
         <v>0.62089799458181294</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.25183976989831969</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>15</v>
       </c>
@@ -2509,11 +2507,11 @@
         <v>0.875</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.25410200541818706</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>16</v>
       </c>
@@ -2527,15 +2525,16 @@
         <v>0.10498503595590591</v>
       </c>
       <c r="E36" s="8">
-        <f>D36/SUM($D$36:$D$51)*(1-$E$35)+E35</f>
+        <f t="shared" ref="E36:E51" si="5">D36/SUM($D$36:$D$51)*(1-$E$35)+E35</f>
         <v>0.92998062350208355</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.4980623502083548E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>17</v>
       </c>
@@ -2549,15 +2548,15 @@
         <v>5.3284000605344772E-2</v>
       </c>
       <c r="E37" s="8">
-        <f>D37/SUM($D$36:$D$51)*(1-$E$35)+E36</f>
+        <f t="shared" si="5"/>
         <v>0.95788543440482676</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.7904810902743216E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>18</v>
       </c>
@@ -2571,15 +2570,15 @@
         <v>3.9279080927371979E-2</v>
       </c>
       <c r="E38" s="8">
-        <f>D38/SUM($D$36:$D$51)*(1-$E$35)+E37</f>
+        <f t="shared" si="5"/>
         <v>0.97845587418524216</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.0570439780415395E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>19</v>
       </c>
@@ -2593,15 +2592,15 @@
         <v>2.1830281242728233E-2</v>
       </c>
       <c r="E39" s="8">
-        <f>D39/SUM($D$36:$D$51)*(1-$E$35)+E38</f>
+        <f t="shared" si="5"/>
         <v>0.98988838419033609</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.1432510005093932E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>20</v>
       </c>
@@ -2615,15 +2614,15 @@
         <v>7.4951210990548134E-3</v>
       </c>
       <c r="E40" s="8">
-        <f>D40/SUM($D$36:$D$51)*(1-$E$35)+E39</f>
+        <f t="shared" si="5"/>
         <v>0.99381357626649758</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.9251920761614878E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>21</v>
       </c>
@@ -2637,15 +2636,15 @@
         <v>2.7041751891374588E-3</v>
       </c>
       <c r="E41" s="8">
-        <f>D41/SUM($D$36:$D$51)*(1-$E$35)+E40</f>
+        <f t="shared" si="5"/>
         <v>0.99522975178716977</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4161755206721915E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>22</v>
       </c>
@@ -2659,15 +2658,15 @@
         <v>6.4156302250921726E-3</v>
       </c>
       <c r="E42" s="8">
-        <f>D42/SUM($D$36:$D$51)*(1-$E$35)+E41</f>
+        <f t="shared" si="5"/>
         <v>0.99858961490216203</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.3598631149922564E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>23</v>
       </c>
@@ -2681,15 +2680,15 @@
         <v>5.1633440307341516E-5</v>
       </c>
       <c r="E43" s="8">
-        <f>D43/SUM($D$36:$D$51)*(1-$E$35)+E42</f>
+        <f t="shared" si="5"/>
         <v>0.99861665531526289</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.7040413100865024E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>24</v>
       </c>
@@ -2703,15 +2702,15 @@
         <v>5.1153823733329773E-4</v>
       </c>
       <c r="E44" s="8">
-        <f>D44/SUM($D$36:$D$51)*(1-$E$35)+E43</f>
+        <f t="shared" si="5"/>
         <v>0.99888454769609281</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.6789238082991496E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>25</v>
       </c>
@@ -2725,15 +2724,15 @@
         <v>3.59002297045663E-4</v>
       </c>
       <c r="E45" s="8">
-        <f>D45/SUM($D$36:$D$51)*(1-$E$35)+E44</f>
+        <f t="shared" si="5"/>
         <v>0.99907255706286147</v>
       </c>
       <c r="F45" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.8800936676865998E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>26</v>
       </c>
@@ -2747,15 +2746,15 @@
         <v>1.770944450981915E-3</v>
       </c>
       <c r="E46" s="8">
-        <f>D46/SUM($D$36:$D$51)*(1-$E$35)+E45</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.2744293713853398E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>27</v>
       </c>
@@ -2769,15 +2768,15 @@
         <v>0</v>
       </c>
       <c r="E47" s="8">
-        <f>D47/SUM($D$36:$D$51)*(1-$E$35)+E46</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>28</v>
       </c>
@@ -2791,11 +2790,11 @@
         <v>0</v>
       </c>
       <c r="E48" s="8">
-        <f>D48/SUM($D$36:$D$51)*(1-$E$35)+E47</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2813,11 +2812,11 @@
         <v>0</v>
       </c>
       <c r="E49" s="8">
-        <f>D49/SUM($D$36:$D$51)*(1-$E$35)+E48</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F49" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2835,11 +2834,11 @@
         <v>0</v>
       </c>
       <c r="E50" s="8">
-        <f>D50/SUM($D$36:$D$51)*(1-$E$35)+E49</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F50" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G50" s="3"/>
@@ -2858,11 +2857,11 @@
         <v>0</v>
       </c>
       <c r="E51" s="8">
-        <f>D51/SUM($D$36:$D$51)*(1-$E$35)+E50</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F51" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2902,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="8">
-        <f>D53/SUM($D$52:$D$60)*$E$60+E52</f>
+        <f t="shared" ref="E53:E59" si="6">D53/SUM($D$52:$D$60)*$E$60+E52</f>
         <v>0</v>
       </c>
       <c r="F53" s="8">
@@ -2924,11 +2923,11 @@
         <v>1.6604239121079445E-2</v>
       </c>
       <c r="E54" s="8">
-        <f>D54/SUM($D$52:$D$60)*$E$60+E53</f>
+        <f t="shared" si="6"/>
         <v>3.3017071420713723E-2</v>
       </c>
       <c r="F54" s="8">
-        <f t="shared" ref="F54:F75" si="2">E54-E53</f>
+        <f t="shared" ref="F54:F75" si="7">E54-E53</f>
         <v>3.3017071420713723E-2</v>
       </c>
     </row>
@@ -2946,11 +2945,11 @@
         <v>1.6604239121079445E-2</v>
       </c>
       <c r="E55" s="8">
-        <f>D55/SUM($D$52:$D$60)*$E$60+E54</f>
+        <f t="shared" si="6"/>
         <v>6.6034142841427446E-2</v>
       </c>
       <c r="F55" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.3017071420713723E-2</v>
       </c>
     </row>
@@ -2968,11 +2967,11 @@
         <v>3.320847824215889E-2</v>
       </c>
       <c r="E56" s="8">
-        <f>D56/SUM($D$52:$D$60)*$E$60+E55</f>
+        <f t="shared" si="6"/>
         <v>0.13206828568285489</v>
       </c>
       <c r="F56" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.6034142841427446E-2</v>
       </c>
     </row>
@@ -2990,11 +2989,11 @@
         <v>6.7274890840053558E-2</v>
       </c>
       <c r="E57" s="8">
-        <f>D57/SUM($D$52:$D$60)*$E$60+E56</f>
+        <f t="shared" si="6"/>
         <v>0.26584255016371749</v>
       </c>
       <c r="F57" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.1337742644808626</v>
       </c>
     </row>
@@ -3012,11 +3011,11 @@
         <v>4.8708070069551468E-2</v>
       </c>
       <c r="E58" s="8">
-        <f>D58/SUM($D$52:$D$60)*$E$60+E57</f>
+        <f t="shared" si="6"/>
         <v>0.36269720375695963</v>
       </c>
       <c r="F58" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>9.6854653593242135E-2</v>
       </c>
     </row>
@@ -3034,11 +3033,11 @@
         <v>5.0536371767520905E-2</v>
       </c>
       <c r="E59" s="8">
-        <f>D59/SUM($D$52:$D$60)*$E$60+E58</f>
+        <f t="shared" si="6"/>
         <v>0.46318738483810901</v>
       </c>
       <c r="F59" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.10049018108114938</v>
       </c>
     </row>
@@ -3059,7 +3058,7 @@
         <v>0.81</v>
       </c>
       <c r="F60" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.34681261516189105</v>
       </c>
     </row>
@@ -3077,11 +3076,11 @@
         <v>0.18076877295970917</v>
       </c>
       <c r="E61" s="8">
-        <f>D61/SUM($D$61:$D$75)*(1-$E$60)+E60</f>
+        <f t="shared" ref="E61:E75" si="8">D61/SUM($D$61:$D$75)*(1-$E$60)+E60</f>
         <v>0.86795316494204289</v>
       </c>
       <c r="F61" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.7953164942042834E-2</v>
       </c>
     </row>
@@ -3099,11 +3098,11 @@
         <v>0.11555158346891403</v>
       </c>
       <c r="E62" s="8">
-        <f>D62/SUM($D$61:$D$75)*(1-$E$60)+E61</f>
+        <f t="shared" si="8"/>
         <v>0.90499816926688159</v>
       </c>
       <c r="F62" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.7045004324838704E-2</v>
       </c>
     </row>
@@ -3121,11 +3120,11 @@
         <v>6.4543396234512329E-2</v>
       </c>
       <c r="E63" s="8">
-        <f>D63/SUM($D$61:$D$75)*(1-$E$60)+E62</f>
+        <f t="shared" si="8"/>
         <v>0.92569031662538592</v>
       </c>
       <c r="F63" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.0692147358504331E-2</v>
       </c>
     </row>
@@ -3143,11 +3142,11 @@
         <v>0.11943943798542023</v>
       </c>
       <c r="E64" s="8">
-        <f>D64/SUM($D$61:$D$75)*(1-$E$60)+E63</f>
+        <f t="shared" si="8"/>
         <v>0.96398173906977436</v>
       </c>
       <c r="F64" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.8291422444388434E-2</v>
       </c>
     </row>
@@ -3165,11 +3164,11 @@
         <v>4.2434059083461761E-2</v>
       </c>
       <c r="E65" s="8">
-        <f>D65/SUM($D$61:$D$75)*(1-$E$60)+E64</f>
+        <f t="shared" si="8"/>
         <v>0.97758579238584331</v>
       </c>
       <c r="F65" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.3604053316068954E-2</v>
       </c>
     </row>
@@ -3187,11 +3186,11 @@
         <v>3.6112628877162933E-2</v>
       </c>
       <c r="E66" s="8">
-        <f>D66/SUM($D$61:$D$75)*(1-$E$60)+E65</f>
+        <f t="shared" si="8"/>
         <v>0.98916324076668438</v>
       </c>
       <c r="F66" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1577448380841071E-2</v>
       </c>
     </row>
@@ -3209,11 +3208,11 @@
         <v>2.766173891723156E-2</v>
       </c>
       <c r="E67" s="8">
-        <f>D67/SUM($D$61:$D$75)*(1-$E$60)+E66</f>
+        <f t="shared" si="8"/>
         <v>0.99803139477252778</v>
       </c>
       <c r="F67" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8.8681540058433983E-3</v>
       </c>
     </row>
@@ -3231,11 +3230,11 @@
         <v>5.5418508127331734E-3</v>
       </c>
       <c r="E68" s="8">
-        <f>D68/SUM($D$61:$D$75)*(1-$E$60)+E67</f>
+        <f t="shared" si="8"/>
         <v>0.99980807217635181</v>
       </c>
       <c r="F68" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.7766774038240341E-3</v>
       </c>
     </row>
@@ -3253,11 +3252,11 @@
         <v>0</v>
       </c>
       <c r="E69" s="8">
-        <f>D69/SUM($D$61:$D$75)*(1-$E$60)+E68</f>
+        <f t="shared" si="8"/>
         <v>0.99980807217635181</v>
       </c>
       <c r="F69" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3275,11 +3274,11 @@
         <v>0</v>
       </c>
       <c r="E70" s="8">
-        <f>D70/SUM($D$61:$D$75)*(1-$E$60)+E69</f>
+        <f t="shared" si="8"/>
         <v>0.99980807217635181</v>
       </c>
       <c r="F70" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3297,11 +3296,11 @@
         <v>5.986654432490468E-4</v>
       </c>
       <c r="E71" s="8">
-        <f>D71/SUM($D$61:$D$75)*(1-$E$60)+E70</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F71" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.9192782364818584E-4</v>
       </c>
     </row>
@@ -3319,11 +3318,11 @@
         <v>0</v>
       </c>
       <c r="E72" s="8">
-        <f>D72/SUM($D$61:$D$75)*(1-$E$60)+E71</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F72" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3341,11 +3340,11 @@
         <v>0</v>
       </c>
       <c r="E73" s="8">
-        <f>D73/SUM($D$61:$D$75)*(1-$E$60)+E72</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F73" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3363,11 +3362,11 @@
         <v>0</v>
       </c>
       <c r="E74" s="8">
-        <f>D74/SUM($D$61:$D$75)*(1-$E$60)+E73</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F74" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3385,11 +3384,11 @@
         <v>0</v>
       </c>
       <c r="E75" s="8">
-        <f>D75/SUM($D$61:$D$75)*(1-$E$60)+E74</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F75" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G75" s="3"/>
@@ -3430,7 +3429,7 @@
         <v>4.6727480366826057E-4</v>
       </c>
       <c r="E77" s="8">
-        <f>D77/SUM($D$76:$D$88)*$E$88+E76</f>
+        <f t="shared" ref="E77:E87" si="9">D77/SUM($D$76:$D$88)*$E$88+E76</f>
         <v>9.4827257609389243E-4</v>
       </c>
       <c r="F77" s="8">
@@ -3452,11 +3451,11 @@
         <v>6.230330909602344E-4</v>
       </c>
       <c r="E78" s="8">
-        <f>D78/SUM($D$76:$D$88)*$E$88+E77</f>
+        <f t="shared" si="9"/>
         <v>1.589602959300438E-3</v>
       </c>
       <c r="F78" s="8">
-        <f t="shared" ref="F78:F103" si="3">E78-E77</f>
+        <f t="shared" ref="F78:F103" si="10">E78-E77</f>
         <v>6.4133038320654556E-4</v>
       </c>
     </row>
@@ -3474,11 +3473,11 @@
         <v>1.2460661819204688E-3</v>
       </c>
       <c r="E79" s="8">
-        <f>D79/SUM($D$76:$D$88)*$E$88+E78</f>
+        <f t="shared" si="9"/>
         <v>2.8722637257135291E-3</v>
       </c>
       <c r="F79" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1.2826607664130911E-3</v>
       </c>
     </row>
@@ -3496,11 +3495,11 @@
         <v>4.6727480366826057E-3</v>
       </c>
       <c r="E80" s="8">
-        <f>D80/SUM($D$76:$D$88)*$E$88+E79</f>
+        <f t="shared" si="9"/>
         <v>7.6822414499698472E-3</v>
       </c>
       <c r="F80" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>4.8099777242563181E-3</v>
       </c>
     </row>
@@ -3518,11 +3517,11 @@
         <v>2.6634665206074715E-2</v>
       </c>
       <c r="E81" s="8">
-        <f>D81/SUM($D$76:$D$88)*$E$88+E80</f>
+        <f t="shared" si="9"/>
         <v>3.5099115916241472E-2</v>
       </c>
       <c r="F81" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.7416874466271626E-2</v>
       </c>
     </row>
@@ -3540,11 +3539,11 @@
         <v>6.1127625405788422E-2</v>
       </c>
       <c r="E82" s="8">
-        <f>D82/SUM($D$76:$D$88)*$E$88+E81</f>
+        <f t="shared" si="9"/>
         <v>9.8021942961559055E-2</v>
       </c>
       <c r="F82" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>6.2922827045317584E-2</v>
       </c>
     </row>
@@ -3562,11 +3561,11 @@
         <v>0.11463809013366699</v>
       </c>
       <c r="E83" s="8">
-        <f>D83/SUM($D$76:$D$88)*$E$88+E82</f>
+        <f t="shared" si="9"/>
         <v>0.21602673490957403</v>
       </c>
       <c r="F83" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.11800479194801497</v>
       </c>
     </row>
@@ -3584,11 +3583,11 @@
         <v>0.11806478351354599</v>
       </c>
       <c r="E84" s="8">
-        <f>D84/SUM($D$76:$D$88)*$E$88+E83</f>
+        <f t="shared" si="9"/>
         <v>0.33755885567901978</v>
       </c>
       <c r="F84" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.12153212076944575</v>
       </c>
     </row>
@@ -3606,11 +3605,11 @@
         <v>0.14938646554946899</v>
       </c>
       <c r="E85" s="8">
-        <f>D85/SUM($D$76:$D$88)*$E$88+E84</f>
+        <f t="shared" si="9"/>
         <v>0.49133251647936921</v>
       </c>
       <c r="F85" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.15377366080034943</v>
       </c>
     </row>
@@ -3628,11 +3627,11 @@
         <v>0.14711950719356537</v>
       </c>
       <c r="E86" s="8">
-        <f>D86/SUM($D$76:$D$88)*$E$88+E85</f>
+        <f t="shared" si="9"/>
         <v>0.64277264268548995</v>
       </c>
       <c r="F86" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.15144012620612074</v>
       </c>
     </row>
@@ -3650,11 +3649,11 @@
         <v>0.14571411907672882</v>
       </c>
       <c r="E87" s="8">
-        <f>D87/SUM($D$76:$D$88)*$E$88+E86</f>
+        <f t="shared" si="9"/>
         <v>0.79276610720926632</v>
       </c>
       <c r="F87" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.14999346452377638</v>
       </c>
     </row>
@@ -3675,7 +3674,7 @@
         <v>0.92</v>
       </c>
       <c r="F88" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.12723389279073372</v>
       </c>
     </row>
@@ -3693,11 +3692,11 @@
         <v>5.2224356681108475E-2</v>
       </c>
       <c r="E89" s="8">
-        <f>D89/SUM($D$89:$D$103)*(1-$E$88)+E88</f>
+        <f t="shared" ref="E89:E103" si="11">D89/SUM($D$89:$D$103)*(1-$E$88)+E88</f>
         <v>0.95932267414606132</v>
       </c>
       <c r="F89" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.9322674146061276E-2</v>
       </c>
     </row>
@@ -3715,11 +3714,11 @@
         <v>2.0837556570768356E-2</v>
       </c>
       <c r="E90" s="8">
-        <f>D90/SUM($D$89:$D$103)*(1-$E$88)+E89</f>
+        <f t="shared" si="11"/>
         <v>0.97501244993469915</v>
       </c>
       <c r="F90" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1.5689775788637839E-2</v>
       </c>
     </row>
@@ -3737,11 +3736,11 @@
         <v>1.2239217758178711E-2</v>
       </c>
       <c r="E91" s="8">
-        <f>D91/SUM($D$89:$D$103)*(1-$E$88)+E90</f>
+        <f t="shared" si="11"/>
         <v>0.98422804974852407</v>
       </c>
       <c r="F91" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>9.2155998138249151E-3</v>
       </c>
     </row>
@@ -3759,11 +3758,11 @@
         <v>7.3961368761956692E-3</v>
       </c>
       <c r="E92" s="8">
-        <f>D92/SUM($D$89:$D$103)*(1-$E$88)+E91</f>
+        <f t="shared" si="11"/>
         <v>0.98979701983844226</v>
       </c>
       <c r="F92" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>5.5689700899181904E-3</v>
       </c>
     </row>
@@ -3781,11 +3780,11 @@
         <v>4.9820099957287312E-3</v>
       </c>
       <c r="E93" s="8">
-        <f>D93/SUM($D$89:$D$103)*(1-$E$88)+E92</f>
+        <f t="shared" si="11"/>
         <v>0.99354825715574802</v>
       </c>
       <c r="F93" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.7512373173057556E-3</v>
       </c>
     </row>
@@ -3803,11 +3802,11 @@
         <v>1.714595127850771E-3</v>
       </c>
       <c r="E94" s="8">
-        <f>D94/SUM($D$89:$D$103)*(1-$E$88)+E93</f>
+        <f t="shared" si="11"/>
         <v>0.99483927287694862</v>
       </c>
       <c r="F94" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1.2910157212006057E-3</v>
       </c>
     </row>
@@ -3825,11 +3824,11 @@
         <v>3.1132104340940714E-3</v>
       </c>
       <c r="E95" s="8">
-        <f>D95/SUM($D$89:$D$103)*(1-$E$88)+E94</f>
+        <f t="shared" si="11"/>
         <v>0.99718338522658501</v>
       </c>
       <c r="F95" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.3441123496363847E-3</v>
       </c>
     </row>
@@ -3847,11 +3846,11 @@
         <v>2.7016822714358568E-3</v>
       </c>
       <c r="E96" s="8">
-        <f>D96/SUM($D$89:$D$103)*(1-$E$88)+E95</f>
+        <f t="shared" si="11"/>
         <v>0.99921763472925607</v>
       </c>
       <c r="F96" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.0342495026710594E-3</v>
       </c>
     </row>
@@ -3869,11 +3868,11 @@
         <v>5.5078649893403053E-4</v>
       </c>
       <c r="E97" s="8">
-        <f>D97/SUM($D$89:$D$103)*(1-$E$88)+E96</f>
+        <f t="shared" si="11"/>
         <v>0.99963235305989795</v>
       </c>
       <c r="F97" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>4.1471833064188335E-4</v>
       </c>
     </row>
@@ -3891,11 +3890,11 @@
         <v>2.9460887162713334E-5</v>
       </c>
       <c r="E98" s="8">
-        <f>D98/SUM($D$89:$D$103)*(1-$E$88)+E97</f>
+        <f t="shared" si="11"/>
         <v>0.99965453582938668</v>
       </c>
       <c r="F98" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.2182769488732212E-5</v>
       </c>
     </row>
@@ -3913,11 +3912,11 @@
         <v>0</v>
       </c>
       <c r="E99" s="8">
-        <f>D99/SUM($D$89:$D$103)*(1-$E$88)+E98</f>
+        <f t="shared" si="11"/>
         <v>0.99965453582938668</v>
       </c>
       <c r="F99" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3935,11 +3934,11 @@
         <v>1.4729365648236126E-4</v>
       </c>
       <c r="E100" s="8">
-        <f>D100/SUM($D$89:$D$103)*(1-$E$88)+E99</f>
+        <f t="shared" si="11"/>
         <v>0.99976544156046165</v>
       </c>
       <c r="F100" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1.1090573107497281E-4</v>
       </c>
     </row>
@@ -3957,11 +3956,11 @@
         <v>1.557582727400586E-4</v>
       </c>
       <c r="E101" s="8">
-        <f>D101/SUM($D$89:$D$103)*(1-$E$88)+E100</f>
+        <f t="shared" si="11"/>
         <v>0.99988272078023088</v>
       </c>
       <c r="F101" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1.172792197692285E-4</v>
       </c>
     </row>
@@ -3979,11 +3978,11 @@
         <v>0</v>
       </c>
       <c r="E102" s="8">
-        <f>D102/SUM($D$89:$D$103)*(1-$E$88)+E101</f>
+        <f t="shared" si="11"/>
         <v>0.99988272078023088</v>
       </c>
       <c r="F102" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4001,11 +4000,11 @@
         <v>1.557582727400586E-4</v>
       </c>
       <c r="E103" s="8">
-        <f>D103/SUM($D$89:$D$103)*(1-$E$88)+E102</f>
+        <f t="shared" si="11"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="F103" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1.1727921976933953E-4</v>
       </c>
       <c r="G103" s="3"/>
@@ -4046,7 +4045,7 @@
         <v>2.2181705571711063E-4</v>
       </c>
       <c r="E105" s="8">
-        <f>D105/SUM($D$104:$D$117)*$E$117+E104</f>
+        <f t="shared" ref="E105:E116" si="12">D105/SUM($D$104:$D$117)*$E$117+E104</f>
         <v>4.5428333392642795E-4</v>
       </c>
       <c r="F105" s="8">
@@ -4068,11 +4067,11 @@
         <v>1.9963535014539957E-3</v>
       </c>
       <c r="E106" s="8">
-        <f>D106/SUM($D$104:$D$117)*$E$117+E105</f>
+        <f t="shared" si="12"/>
         <v>2.5464798378102838E-3</v>
       </c>
       <c r="F106" s="8">
-        <f t="shared" ref="F106:F130" si="4">E106-E105</f>
+        <f t="shared" ref="F106:F130" si="13">E106-E105</f>
         <v>2.0921965038838558E-3</v>
       </c>
     </row>
@@ -4090,11 +4089,11 @@
         <v>2.8836217243224382E-3</v>
       </c>
       <c r="E107" s="8">
-        <f>D107/SUM($D$104:$D$117)*$E$117+E106</f>
+        <f t="shared" si="12"/>
         <v>5.5685414545314088E-3</v>
       </c>
       <c r="F107" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.0220616167211251E-3</v>
       </c>
     </row>
@@ -4112,11 +4111,11 @@
         <v>4.6581579372286797E-3</v>
       </c>
       <c r="E108" s="8">
-        <f>D108/SUM($D$104:$D$117)*$E$117+E107</f>
+        <f t="shared" si="12"/>
         <v>1.0450333052918455E-2</v>
       </c>
       <c r="F108" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>4.8817915983870464E-3</v>
       </c>
     </row>
@@ -4134,11 +4133,11 @@
         <v>1.5749009326100349E-2</v>
       </c>
       <c r="E109" s="8">
-        <f>D109/SUM($D$104:$D$117)*$E$117+E108</f>
+        <f t="shared" si="12"/>
         <v>2.6955437097719658E-2</v>
       </c>
       <c r="F109" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.6505104044801204E-2</v>
       </c>
     </row>
@@ -4156,11 +4155,11 @@
         <v>5.4814077913761139E-2</v>
       </c>
       <c r="E110" s="8">
-        <f>D110/SUM($D$104:$D$117)*$E$117+E109</f>
+        <f t="shared" si="12"/>
         <v>8.4401085922570868E-2</v>
       </c>
       <c r="F110" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>5.744564882485121E-2</v>
       </c>
     </row>
@@ -4178,11 +4177,11 @@
         <v>9.3477837741374969E-2</v>
       </c>
       <c r="E111" s="8">
-        <f>D111/SUM($D$104:$D$117)*$E$117+E110</f>
+        <f t="shared" si="12"/>
         <v>0.18236670432165974</v>
       </c>
       <c r="F111" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>9.7965618399088877E-2</v>
       </c>
     </row>
@@ -4200,11 +4199,11 @@
         <v>0.13000424206256866</v>
       </c>
       <c r="E112" s="8">
-        <f>D112/SUM($D$104:$D$117)*$E$117+E111</f>
+        <f t="shared" si="12"/>
         <v>0.31861232441613507</v>
       </c>
       <c r="F112" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.13624562009447533</v>
       </c>
     </row>
@@ -4222,11 +4221,11 @@
         <v>0.15665458142757416</v>
       </c>
       <c r="E113" s="8">
-        <f>D113/SUM($D$104:$D$117)*$E$117+E112</f>
+        <f t="shared" si="12"/>
         <v>0.48278774091499121</v>
       </c>
       <c r="F113" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.16417541649885614</v>
       </c>
     </row>
@@ -4244,11 +4243,11 @@
         <v>0.16712109744548798</v>
       </c>
       <c r="E114" s="8">
-        <f>D114/SUM($D$104:$D$117)*$E$117+E113</f>
+        <f t="shared" si="12"/>
         <v>0.65793216075146999</v>
       </c>
       <c r="F114" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.17514441983647877</v>
       </c>
     </row>
@@ -4266,11 +4265,11 @@
         <v>0.1348918080329895</v>
       </c>
       <c r="E115" s="8">
-        <f>D115/SUM($D$104:$D$117)*$E$117+E114</f>
+        <f t="shared" si="12"/>
         <v>0.79929999413550978</v>
       </c>
       <c r="F115" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.1413678333840398</v>
       </c>
     </row>
@@ -4288,11 +4287,11 @@
         <v>8.5501641035079956E-2</v>
       </c>
       <c r="E116" s="8">
-        <f>D116/SUM($D$104:$D$117)*$E$117+E115</f>
+        <f t="shared" si="12"/>
         <v>0.88890648633222713</v>
       </c>
       <c r="F116" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>8.9606492196717347E-2</v>
       </c>
     </row>
@@ -4313,7 +4312,7 @@
         <v>0.93799999999999994</v>
       </c>
       <c r="F117" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>4.9093513667772815E-2</v>
       </c>
     </row>
@@ -4331,11 +4330,11 @@
         <v>2.9230108484625816E-2</v>
       </c>
       <c r="E118" s="8">
-        <f>D118/SUM($D$118:$D$130)*(1-$E$117)+E117</f>
+        <f t="shared" ref="E118:E130" si="14">D118/SUM($D$118:$D$130)*(1-$E$117)+E117</f>
         <v>0.95526468542602017</v>
       </c>
       <c r="F118" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.7264685426020221E-2</v>
       </c>
     </row>
@@ -4353,11 +4352,11 @@
         <v>1.7011849209666252E-2</v>
       </c>
       <c r="E119" s="8">
-        <f>D119/SUM($D$118:$D$130)*(1-$E$117)+E118</f>
+        <f t="shared" si="14"/>
         <v>0.9653126886783604</v>
       </c>
       <c r="F119" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.0048003252340232E-2</v>
       </c>
     </row>
@@ -4375,11 +4374,11 @@
         <v>1.7711685970425606E-2</v>
       </c>
       <c r="E120" s="8">
-        <f>D120/SUM($D$118:$D$130)*(1-$E$117)+E119</f>
+        <f t="shared" si="14"/>
         <v>0.9757740486423403</v>
       </c>
       <c r="F120" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.0461359963979899E-2</v>
       </c>
     </row>
@@ -4397,11 +4396,11 @@
         <v>1.3353480026125908E-2</v>
       </c>
       <c r="E121" s="8">
-        <f>D121/SUM($D$118:$D$130)*(1-$E$117)+E120</f>
+        <f t="shared" si="14"/>
         <v>0.98366124591753912</v>
       </c>
       <c r="F121" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>7.8871972751988206E-3</v>
       </c>
     </row>
@@ -4419,11 +4418,11 @@
         <v>9.6225887537002563E-3</v>
       </c>
       <c r="E122" s="8">
-        <f>D122/SUM($D$118:$D$130)*(1-$E$117)+E121</f>
+        <f t="shared" si="14"/>
         <v>0.9893448022376935</v>
       </c>
       <c r="F122" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>5.6835563201543815E-3</v>
       </c>
     </row>
@@ -4441,11 +4440,11 @@
         <v>5.4307309910655022E-3</v>
       </c>
       <c r="E123" s="8">
-        <f>D123/SUM($D$118:$D$130)*(1-$E$117)+E122</f>
+        <f t="shared" si="14"/>
         <v>0.99255244897781425</v>
       </c>
       <c r="F123" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.2076467401207509E-3</v>
       </c>
     </row>
@@ -4463,11 +4462,11 @@
         <v>5.1092156209051609E-3</v>
       </c>
       <c r="E124" s="8">
-        <f>D124/SUM($D$118:$D$130)*(1-$E$117)+E123</f>
+        <f t="shared" si="14"/>
         <v>0.99557019352416209</v>
       </c>
       <c r="F124" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.0177445463478447E-3</v>
       </c>
     </row>
@@ -4485,11 +4484,11 @@
         <v>3.5619628615677357E-3</v>
       </c>
       <c r="E125" s="8">
-        <f>D125/SUM($D$118:$D$130)*(1-$E$117)+E124</f>
+        <f t="shared" si="14"/>
         <v>0.99767405736498493</v>
       </c>
       <c r="F125" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.1038638408228394E-3</v>
       </c>
     </row>
@@ -4507,11 +4506,11 @@
         <v>1.792583498172462E-3</v>
       </c>
       <c r="E126" s="8">
-        <f>D126/SUM($D$118:$D$130)*(1-$E$117)+E125</f>
+        <f t="shared" si="14"/>
         <v>0.99873284201547985</v>
       </c>
       <c r="F126" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.058784650494915E-3</v>
       </c>
     </row>
@@ -4529,11 +4528,11 @@
         <v>9.2556723393499851E-4</v>
       </c>
       <c r="E127" s="8">
-        <f>D127/SUM($D$118:$D$130)*(1-$E$117)+E126</f>
+        <f t="shared" si="14"/>
         <v>0.99927952582758151</v>
       </c>
       <c r="F127" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>5.4668381210165595E-4</v>
       </c>
     </row>
@@ -4551,11 +4550,11 @@
         <v>3.0979127041064203E-4</v>
       </c>
       <c r="E128" s="8">
-        <f>D128/SUM($D$118:$D$130)*(1-$E$117)+E127</f>
+        <f t="shared" si="14"/>
         <v>0.99946250321318308</v>
       </c>
       <c r="F128" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.8297738560157928E-4</v>
       </c>
     </row>
@@ -4573,11 +4572,11 @@
         <v>6.6545122535899282E-4</v>
       </c>
       <c r="E129" s="8">
-        <f>D129/SUM($D$118:$D$130)*(1-$E$117)+E128</f>
+        <f t="shared" si="14"/>
         <v>0.99985555020027261</v>
       </c>
       <c r="F129" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.9304698708952923E-4</v>
       </c>
     </row>
@@ -4595,11 +4594,11 @@
         <v>2.4456184473820031E-4</v>
       </c>
       <c r="E130" s="8">
-        <f>D130/SUM($D$118:$D$130)*(1-$E$117)+E129</f>
+        <f t="shared" si="14"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="F130" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.4444979972727534E-4</v>
       </c>
       <c r="G130" s="3"/>
@@ -4640,7 +4639,7 @@
         <v>2.4190505500882864E-3</v>
       </c>
       <c r="E132" s="8">
-        <f>D132/SUM($D$131:$D$142)*$E$142+E131</f>
+        <f t="shared" ref="E132:E141" si="15">D132/SUM($D$131:$D$142)*$E$142+E131</f>
         <v>2.3711704862210766E-3</v>
       </c>
       <c r="F132" s="8">
@@ -4662,11 +4661,11 @@
         <v>7.2571514174342155E-3</v>
       </c>
       <c r="E133" s="8">
-        <f>D133/SUM($D$131:$D$142)*$E$142+E132</f>
+        <f t="shared" si="15"/>
         <v>9.4846817166620596E-3</v>
       </c>
       <c r="F133" s="8">
-        <f t="shared" ref="F133:F155" si="5">E133-E132</f>
+        <f t="shared" ref="F133:F155" si="16">E133-E132</f>
         <v>7.1135112304409834E-3</v>
       </c>
     </row>
@@ -4684,11 +4683,11 @@
         <v>6.4508016221225262E-3</v>
       </c>
       <c r="E134" s="8">
-        <f>D134/SUM($D$131:$D$142)*$E$142+E133</f>
+        <f t="shared" si="15"/>
         <v>1.5807803165399762E-2</v>
       </c>
       <c r="F134" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>6.3231214487377025E-3</v>
       </c>
     </row>
@@ -4706,11 +4705,11 @@
         <v>2.2577805444598198E-2</v>
       </c>
       <c r="E135" s="8">
-        <f>D135/SUM($D$131:$D$142)*$E$142+E134</f>
+        <f t="shared" si="15"/>
         <v>3.7938728007759472E-2</v>
       </c>
       <c r="F135" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2.2130924842359709E-2</v>
       </c>
     </row>
@@ -4728,11 +4727,11 @@
         <v>6.6812768578529358E-2</v>
       </c>
       <c r="E136" s="8">
-        <f>D136/SUM($D$131:$D$142)*$E$142+E135</f>
+        <f t="shared" si="15"/>
         <v>0.10342907708307986</v>
       </c>
       <c r="F136" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>6.5490349075320392E-2</v>
       </c>
     </row>
@@ -4750,11 +4749,11 @@
         <v>8.9516140520572662E-2</v>
       </c>
       <c r="E137" s="8">
-        <f>D137/SUM($D$131:$D$142)*$E$142+E136</f>
+        <f t="shared" si="15"/>
         <v>0.19117343217109314</v>
       </c>
       <c r="F137" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>8.7744355088013287E-2</v>
       </c>
     </row>
@@ -4772,11 +4771,11 @@
         <v>9.6175990998744965E-2</v>
       </c>
       <c r="E138" s="8">
-        <f>D138/SUM($D$131:$D$142)*$E$142+E137</f>
+        <f t="shared" si="15"/>
         <v>0.28544581987748685</v>
       </c>
       <c r="F138" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>9.4272387706393707E-2</v>
       </c>
     </row>
@@ -4794,11 +4793,11 @@
         <v>0.15544784069061279</v>
       </c>
       <c r="E139" s="8">
-        <f>D139/SUM($D$131:$D$142)*$E$142+E138</f>
+        <f t="shared" si="15"/>
         <v>0.43781689454515949</v>
       </c>
       <c r="F139" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.15237107466767263</v>
       </c>
     </row>
@@ -4816,11 +4815,11 @@
         <v>0.16212108731269836</v>
       </c>
       <c r="E140" s="8">
-        <f>D140/SUM($D$131:$D$142)*$E$142+E139</f>
+        <f t="shared" si="15"/>
         <v>0.59672913282637718</v>
       </c>
       <c r="F140" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.1589122382812177</v>
       </c>
     </row>
@@ -4838,11 +4837,11 @@
         <v>0.16947965323925018</v>
       </c>
       <c r="E141" s="8">
-        <f>D141/SUM($D$131:$D$142)*$E$142+E140</f>
+        <f t="shared" si="15"/>
         <v>0.76285428955831303</v>
       </c>
       <c r="F141" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.16612515673193584</v>
       </c>
     </row>
@@ -4863,7 +4862,7 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="F142" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>7.0145710441686937E-2</v>
       </c>
     </row>
@@ -4881,11 +4880,11 @@
         <v>3.4091483801603317E-2</v>
       </c>
       <c r="E143" s="8">
-        <f>D143/SUM($D$143:$D$155)*(1-$E$142)+E142</f>
+        <f t="shared" ref="E143:E155" si="17">D143/SUM($D$143:$D$155)*(1-$E$142)+E142</f>
         <v>0.87090980724953548</v>
       </c>
       <c r="F143" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>3.7909807249535521E-2</v>
       </c>
     </row>
@@ -4903,11 +4902,11 @@
         <v>3.9732702076435089E-2</v>
       </c>
       <c r="E144" s="8">
-        <f>D144/SUM($D$143:$D$155)*(1-$E$142)+E143</f>
+        <f t="shared" si="17"/>
         <v>0.9150926620054799</v>
       </c>
       <c r="F144" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4.4182854755944412E-2</v>
       </c>
     </row>
@@ -4925,11 +4924,11 @@
         <v>3.4582633525133133E-2</v>
       </c>
       <c r="E145" s="8">
-        <f>D145/SUM($D$143:$D$155)*(1-$E$142)+E144</f>
+        <f t="shared" si="17"/>
         <v>0.95354862886068215</v>
       </c>
       <c r="F145" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>3.845596685520225E-2</v>
       </c>
     </row>
@@ -4947,11 +4946,11 @@
         <v>1.0227986611425877E-2</v>
       </c>
       <c r="E146" s="8">
-        <f>D146/SUM($D$143:$D$155)*(1-$E$142)+E145</f>
+        <f t="shared" si="17"/>
         <v>0.96492217315246065</v>
       </c>
       <c r="F146" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1.1373544291778503E-2</v>
       </c>
     </row>
@@ -4969,11 +4968,11 @@
         <v>7.6442924328148365E-3</v>
       </c>
       <c r="E147" s="8">
-        <f>D147/SUM($D$143:$D$155)*(1-$E$142)+E146</f>
+        <f t="shared" si="17"/>
         <v>0.97342264366215037</v>
       </c>
       <c r="F147" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>8.5004705096897171E-3</v>
       </c>
     </row>
@@ -4991,11 +4990,11 @@
         <v>1.0367061942815781E-2</v>
       </c>
       <c r="E148" s="8">
-        <f>D148/SUM($D$143:$D$155)*(1-$E$142)+E147</f>
+        <f t="shared" si="17"/>
         <v>0.98495084003762345</v>
       </c>
       <c r="F148" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1.1528196375473088E-2</v>
       </c>
     </row>
@@ -5013,11 +5012,11 @@
         <v>1.7982277786359191E-3</v>
       </c>
       <c r="E149" s="8">
-        <f>D149/SUM($D$143:$D$155)*(1-$E$142)+E148</f>
+        <f t="shared" si="17"/>
         <v>0.98695047340282305</v>
       </c>
       <c r="F149" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1.9996333651995934E-3</v>
       </c>
     </row>
@@ -5035,11 +5034,11 @@
         <v>2.4280615616589785E-3</v>
       </c>
       <c r="E150" s="8">
-        <f>D150/SUM($D$143:$D$155)*(1-$E$142)+E149</f>
+        <f t="shared" si="17"/>
         <v>0.98965048336214811</v>
       </c>
       <c r="F150" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2.700009959325067E-3</v>
       </c>
     </row>
@@ -5057,11 +5056,11 @@
         <v>6.5343682654201984E-3</v>
       </c>
       <c r="E151" s="8">
-        <f>D151/SUM($D$143:$D$155)*(1-$E$142)+E150</f>
+        <f t="shared" si="17"/>
         <v>0.9969167156822536</v>
       </c>
       <c r="F151" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>7.2662323201054813E-3</v>
       </c>
     </row>
@@ -5079,11 +5078,11 @@
         <v>3.3731883740983903E-4</v>
       </c>
       <c r="E152" s="8">
-        <f>D152/SUM($D$143:$D$155)*(1-$E$142)+E151</f>
+        <f t="shared" si="17"/>
         <v>0.99729181499392516</v>
       </c>
       <c r="F152" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>3.7509931167156729E-4</v>
       </c>
     </row>
@@ -5101,11 +5100,11 @@
         <v>2.4254536256194115E-3</v>
       </c>
       <c r="E153" s="8">
-        <f>D153/SUM($D$143:$D$155)*(1-$E$142)+E152</f>
+        <f t="shared" si="17"/>
         <v>0.99998892492246383</v>
       </c>
       <c r="F153" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2.6971099285386657E-3</v>
       </c>
     </row>
@@ -5123,11 +5122,11 @@
         <v>9.9595818028319627E-6</v>
       </c>
       <c r="E154" s="8">
-        <f>D154/SUM($D$143:$D$155)*(1-$E$142)+E153</f>
+        <f t="shared" si="17"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="F154" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1.1075077536393252E-5</v>
       </c>
     </row>
@@ -5145,11 +5144,11 @@
         <v>0</v>
       </c>
       <c r="E155" s="8">
-        <f>D155/SUM($D$143:$D$155)*(1-$E$142)+E154</f>
+        <f t="shared" si="17"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="F155" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G155" s="3"/>
@@ -5190,7 +5189,7 @@
         <v>7.375562097877264E-3</v>
       </c>
       <c r="E157" s="8">
-        <f>D157/SUM($D$156:$D$167)*$E$167+E156</f>
+        <f t="shared" ref="E157:E166" si="18">D157/SUM($D$156:$D$167)*$E$167+E156</f>
         <v>1.042299010703239E-2</v>
       </c>
       <c r="F157" s="8">
@@ -5212,11 +5211,11 @@
         <v>1.8438905477523804E-2</v>
       </c>
       <c r="E158" s="8">
-        <f>D158/SUM($D$156:$D$167)*$E$167+E157</f>
+        <f t="shared" si="18"/>
         <v>2.9565876877169103E-2</v>
       </c>
       <c r="F158" s="8">
-        <f t="shared" ref="F158:F183" si="6">E158-E157</f>
+        <f t="shared" ref="F158:F183" si="19">E158-E157</f>
         <v>1.9142886770136713E-2</v>
       </c>
     </row>
@@ -5234,11 +5233,11 @@
         <v>4.9128443002700806E-2</v>
       </c>
       <c r="E159" s="8">
-        <f>D159/SUM($D$156:$D$167)*$E$167+E158</f>
+        <f t="shared" si="18"/>
         <v>8.057000088768565E-2</v>
       </c>
       <c r="F159" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>5.1004124010516544E-2</v>
       </c>
     </row>
@@ -5256,11 +5255,11 @@
         <v>5.4394766688346863E-2</v>
       </c>
       <c r="E160" s="8">
-        <f>D160/SUM($D$156:$D$167)*$E$167+E159</f>
+        <f t="shared" si="18"/>
         <v>0.13704151221856661</v>
       </c>
       <c r="F160" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>5.6471511330880964E-2</v>
       </c>
     </row>
@@ -5278,11 +5277,11 @@
         <v>7.0584289729595184E-2</v>
       </c>
       <c r="E161" s="8">
-        <f>D161/SUM($D$156:$D$167)*$E$167+E160</f>
+        <f t="shared" si="18"/>
         <v>0.21032064842820772</v>
       </c>
       <c r="F161" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>7.3279136209641105E-2</v>
       </c>
     </row>
@@ -5300,11 +5299,11 @@
         <v>0.12630648910999298</v>
       </c>
       <c r="E162" s="8">
-        <f>D162/SUM($D$156:$D$167)*$E$167+E161</f>
+        <f t="shared" si="18"/>
         <v>0.34144940888057718</v>
       </c>
       <c r="F162" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0.13112876045236946</v>
       </c>
     </row>
@@ -5322,11 +5321,11 @@
         <v>0.21942295134067535</v>
       </c>
       <c r="E163" s="8">
-        <f>D163/SUM($D$156:$D$167)*$E$167+E162</f>
+        <f t="shared" si="18"/>
         <v>0.56924973669308487</v>
       </c>
       <c r="F163" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0.2278003278125077</v>
       </c>
     </row>
@@ -5344,11 +5343,11 @@
         <v>0.13837248086929321</v>
       </c>
       <c r="E164" s="8">
-        <f>D164/SUM($D$156:$D$167)*$E$167+E163</f>
+        <f t="shared" si="18"/>
         <v>0.71290515792253994</v>
       </c>
       <c r="F164" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0.14365542122945507</v>
       </c>
     </row>
@@ -5366,11 +5365,11 @@
         <v>7.4798889458179474E-2</v>
       </c>
       <c r="E165" s="8">
-        <f>D165/SUM($D$156:$D$167)*$E$167+E164</f>
+        <f t="shared" si="18"/>
         <v>0.7905598035941761</v>
       </c>
       <c r="F165" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>7.7654645671636158E-2</v>
       </c>
     </row>
@@ -5388,11 +5387,11 @@
         <v>6.0568507760763168E-2</v>
       </c>
       <c r="E166" s="8">
-        <f>D166/SUM($D$156:$D$167)*$E$167+E165</f>
+        <f t="shared" si="18"/>
         <v>0.8534407640347923</v>
       </c>
       <c r="F166" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.2880960440616196E-2</v>
       </c>
     </row>
@@ -5413,7 +5412,7 @@
         <v>0.92</v>
       </c>
       <c r="F167" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.6559235965207741E-2</v>
       </c>
     </row>
@@ -5431,11 +5430,11 @@
         <v>3.3073697239160538E-2</v>
       </c>
       <c r="E168" s="8">
-        <f>D168/SUM($D$168:$D$183)*(1-$E$167)+E167</f>
+        <f t="shared" ref="E168:E183" si="20">D168/SUM($D$168:$D$183)*(1-$E$167)+E167</f>
         <v>0.94324364445670006</v>
       </c>
       <c r="F168" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2.3243644456700019E-2</v>
       </c>
     </row>
@@ -5453,11 +5452,11 @@
         <v>3.3293694257736206E-2</v>
       </c>
       <c r="E169" s="8">
-        <f>D169/SUM($D$168:$D$183)*(1-$E$167)+E168</f>
+        <f t="shared" si="20"/>
         <v>0.96664189915985455</v>
       </c>
       <c r="F169" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2.3398254703154486E-2</v>
       </c>
     </row>
@@ -5475,11 +5474,11 @@
         <v>1.715899258852005E-2</v>
       </c>
       <c r="E170" s="8">
-        <f>D170/SUM($D$168:$D$183)*(1-$E$167)+E169</f>
+        <f t="shared" si="20"/>
         <v>0.97870095382431066</v>
       </c>
       <c r="F170" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.2059054664456115E-2</v>
       </c>
     </row>
@@ -5497,11 +5496,11 @@
         <v>1.7268499359488487E-2</v>
       </c>
       <c r="E171" s="8">
-        <f>D171/SUM($D$168:$D$183)*(1-$E$167)+E170</f>
+        <f t="shared" si="20"/>
         <v>0.99083696802648002</v>
       </c>
       <c r="F171" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.2136014202169365E-2</v>
       </c>
     </row>
@@ -5519,11 +5518,11 @@
         <v>8.9112790301442146E-3</v>
       </c>
       <c r="E172" s="8">
-        <f>D172/SUM($D$168:$D$183)*(1-$E$167)+E171</f>
+        <f t="shared" si="20"/>
         <v>0.99709966674846828</v>
       </c>
       <c r="F172" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.2626987219882579E-3</v>
       </c>
     </row>
@@ -5541,11 +5540,11 @@
         <v>1.9260735716670752E-3</v>
       </c>
       <c r="E173" s="8">
-        <f>D173/SUM($D$168:$D$183)*(1-$E$167)+E172</f>
+        <f t="shared" si="20"/>
         <v>0.99845327922709581</v>
       </c>
       <c r="F173" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.3536124786275305E-3</v>
       </c>
     </row>
@@ -5563,11 +5562,11 @@
         <v>1.3782742898911238E-3</v>
       </c>
       <c r="E174" s="8">
-        <f>D174/SUM($D$168:$D$183)*(1-$E$167)+E173</f>
+        <f t="shared" si="20"/>
         <v>0.99942190747952198</v>
       </c>
       <c r="F174" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>9.6862825242616246E-4</v>
       </c>
     </row>
@@ -5585,11 +5584,11 @@
         <v>2.4980178568512201E-4</v>
       </c>
       <c r="E175" s="8">
-        <f>D175/SUM($D$168:$D$183)*(1-$E$167)+E174</f>
+        <f t="shared" si="20"/>
         <v>0.99959746402069505</v>
       </c>
       <c r="F175" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.7555654117307196E-4</v>
       </c>
     </row>
@@ -5607,11 +5606,11 @@
         <v>0</v>
       </c>
       <c r="E176" s="8">
-        <f>D176/SUM($D$168:$D$183)*(1-$E$167)+E175</f>
+        <f t="shared" si="20"/>
         <v>0.99959746402069505</v>
       </c>
       <c r="F176" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -5629,11 +5628,11 @@
         <v>1.5754973219372914E-6</v>
       </c>
       <c r="E177" s="8">
-        <f>D177/SUM($D$168:$D$183)*(1-$E$167)+E176</f>
+        <f t="shared" si="20"/>
         <v>0.99959857125401486</v>
       </c>
       <c r="F177" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.1072333198081097E-6</v>
       </c>
     </row>
@@ -5651,11 +5650,11 @@
         <v>5.711984122171998E-4</v>
       </c>
       <c r="E178" s="8">
-        <f>D178/SUM($D$168:$D$183)*(1-$E$167)+E177</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F178" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>4.01428745985144E-4</v>
       </c>
     </row>
@@ -5673,11 +5672,11 @@
         <v>0</v>
       </c>
       <c r="E179" s="8">
-        <f>D179/SUM($D$168:$D$183)*(1-$E$167)+E178</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F179" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -5695,11 +5694,11 @@
         <v>0</v>
       </c>
       <c r="E180" s="8">
-        <f>D180/SUM($D$168:$D$183)*(1-$E$167)+E179</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F180" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -5717,11 +5716,11 @@
         <v>0</v>
       </c>
       <c r="E181" s="8">
-        <f>D181/SUM($D$168:$D$183)*(1-$E$167)+E180</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F181" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -5739,11 +5738,11 @@
         <v>0</v>
       </c>
       <c r="E182" s="8">
-        <f>D182/SUM($D$168:$D$183)*(1-$E$167)+E181</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F182" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -5761,11 +5760,11 @@
         <v>0</v>
       </c>
       <c r="E183" s="8">
-        <f>D183/SUM($D$168:$D$183)*(1-$E$167)+E182</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F183" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G183" s="3"/>
@@ -5806,7 +5805,7 @@
         <v>7.375562097877264E-3</v>
       </c>
       <c r="E185" s="8">
-        <f>D185/SUM($D$184:$D$195)*$E$195+E184</f>
+        <f t="shared" ref="E185:E194" si="21">D185/SUM($D$184:$D$195)*$E$195+E184</f>
         <v>1.0181623276891481E-2</v>
       </c>
       <c r="F185" s="8">
@@ -5828,11 +5827,11 @@
         <v>1.8438905477523804E-2</v>
       </c>
       <c r="E186" s="8">
-        <f>D186/SUM($D$184:$D$195)*$E$195+E185</f>
+        <f t="shared" si="21"/>
         <v>2.8721092964056491E-2</v>
       </c>
       <c r="F186" s="8">
-        <f t="shared" ref="F186:F211" si="7">E186-E185</f>
+        <f t="shared" ref="F186:F211" si="22">E186-E185</f>
         <v>1.8539469687165008E-2</v>
       </c>
     </row>
@@ -5850,11 +5849,11 @@
         <v>4.9128443002700806E-2</v>
       </c>
       <c r="E187" s="8">
-        <f>D187/SUM($D$184:$D$195)*$E$195+E186</f>
+        <f t="shared" si="21"/>
         <v>7.8117478282937192E-2</v>
       </c>
       <c r="F187" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>4.9396385318880701E-2</v>
       </c>
     </row>
@@ -5872,11 +5871,11 @@
         <v>5.4394766688346863E-2</v>
       </c>
       <c r="E188" s="8">
-        <f>D188/SUM($D$184:$D$195)*$E$195+E187</f>
+        <f t="shared" si="21"/>
         <v>0.13280890936534473</v>
       </c>
       <c r="F188" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>5.4691431082407538E-2</v>
       </c>
     </row>
@@ -5894,11 +5893,11 @@
         <v>7.0584289729595184E-2</v>
       </c>
       <c r="E189" s="8">
-        <f>D189/SUM($D$184:$D$195)*$E$195+E188</f>
+        <f t="shared" si="21"/>
         <v>0.20377815975968194</v>
       </c>
       <c r="F189" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>7.0969250394337213E-2</v>
       </c>
     </row>
@@ -5916,11 +5915,11 @@
         <v>0.12630648910999298</v>
       </c>
       <c r="E190" s="8">
-        <f>D190/SUM($D$184:$D$195)*$E$195+E189</f>
+        <f t="shared" si="21"/>
         <v>0.33077351363257451</v>
       </c>
       <c r="F190" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>0.12699535387289257</v>
       </c>
     </row>
@@ -5938,11 +5937,11 @@
         <v>0.21942295134067535</v>
       </c>
       <c r="E191" s="8">
-        <f>D191/SUM($D$184:$D$195)*$E$195+E190</f>
+        <f t="shared" si="21"/>
         <v>0.55139317893794881</v>
       </c>
       <c r="F191" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>0.2206196653053743</v>
       </c>
     </row>
@@ -5960,11 +5959,11 @@
         <v>0.13837248086929321</v>
       </c>
       <c r="E192" s="8">
-        <f>D192/SUM($D$184:$D$195)*$E$195+E191</f>
+        <f t="shared" si="21"/>
         <v>0.69052033145473635</v>
       </c>
       <c r="F192" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>0.13912715251678753</v>
       </c>
     </row>
@@ -5982,11 +5981,11 @@
         <v>7.4798889458179474E-2</v>
       </c>
       <c r="E193" s="8">
-        <f>D193/SUM($D$184:$D$195)*$E$195+E192</f>
+        <f t="shared" si="21"/>
         <v>0.76572716764324489</v>
       </c>
       <c r="F193" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>7.5206836188508541E-2</v>
       </c>
     </row>
@@ -6004,11 +6003,11 @@
         <v>6.0568507760763168E-2</v>
       </c>
       <c r="E194" s="8">
-        <f>D194/SUM($D$184:$D$195)*$E$195+E193</f>
+        <f t="shared" si="21"/>
         <v>0.82662601085258081</v>
       </c>
       <c r="F194" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>6.0898843209335918E-2</v>
       </c>
     </row>
@@ -6029,7 +6028,7 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="F195" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>6.4373989147419208E-2</v>
       </c>
     </row>
@@ -6047,11 +6046,11 @@
         <v>3.3073697239160538E-2</v>
       </c>
       <c r="E196" s="8">
-        <f>D196/SUM($D$196:$D$211)*(1-$E$195)+E195</f>
+        <f t="shared" ref="E196:E211" si="23">D196/SUM($D$196:$D$211)*(1-$E$195)+E195</f>
         <v>0.92266946557225371</v>
       </c>
       <c r="F196" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>3.1669465572253697E-2</v>
       </c>
     </row>
@@ -6069,11 +6068,11 @@
         <v>3.3293694257736206E-2</v>
       </c>
       <c r="E197" s="8">
-        <f>D197/SUM($D$196:$D$211)*(1-$E$195)+E196</f>
+        <f t="shared" si="23"/>
         <v>0.95454958760530162</v>
       </c>
       <c r="F197" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>3.1880122033047908E-2</v>
       </c>
     </row>
@@ -6091,11 +6090,11 @@
         <v>1.715899258852005E-2</v>
       </c>
       <c r="E198" s="8">
-        <f>D198/SUM($D$196:$D$211)*(1-$E$195)+E197</f>
+        <f t="shared" si="23"/>
         <v>0.97098004958562312</v>
       </c>
       <c r="F198" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1.6430461980321498E-2</v>
       </c>
     </row>
@@ -6113,11 +6112,11 @@
         <v>1.7268499359488487E-2</v>
       </c>
       <c r="E199" s="8">
-        <f>D199/SUM($D$196:$D$211)*(1-$E$195)+E198</f>
+        <f t="shared" si="23"/>
         <v>0.98751536893607883</v>
       </c>
       <c r="F199" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1.6535319350455713E-2</v>
       </c>
     </row>
@@ -6135,11 +6134,11 @@
         <v>8.9112790301442146E-3</v>
       </c>
       <c r="E200" s="8">
-        <f>D200/SUM($D$196:$D$211)*(1-$E$195)+E199</f>
+        <f t="shared" si="23"/>
         <v>0.99604829594478783</v>
       </c>
       <c r="F200" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>8.5329270087090014E-3</v>
       </c>
     </row>
@@ -6157,11 +6156,11 @@
         <v>1.9260735716670752E-3</v>
       </c>
       <c r="E201" s="8">
-        <f>D201/SUM($D$196:$D$211)*(1-$E$195)+E200</f>
+        <f t="shared" si="23"/>
         <v>0.99789259294691779</v>
       </c>
       <c r="F201" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1.8442970021299576E-3</v>
       </c>
     </row>
@@ -6179,11 +6178,11 @@
         <v>1.3782742898911238E-3</v>
       </c>
       <c r="E202" s="8">
-        <f>D202/SUM($D$196:$D$211)*(1-$E$195)+E201</f>
+        <f t="shared" si="23"/>
         <v>0.99921234894084843</v>
       </c>
       <c r="F202" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1.319755993930638E-3</v>
       </c>
     </row>
@@ -6201,11 +6200,11 @@
         <v>2.4980178568512201E-4</v>
       </c>
       <c r="E203" s="8">
-        <f>D203/SUM($D$196:$D$211)*(1-$E$195)+E202</f>
+        <f t="shared" si="23"/>
         <v>0.99945154472819675</v>
       </c>
       <c r="F203" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>2.3919578734832303E-4</v>
       </c>
     </row>
@@ -6223,11 +6222,11 @@
         <v>0</v>
       </c>
       <c r="E204" s="8">
-        <f>D204/SUM($D$196:$D$211)*(1-$E$195)+E203</f>
+        <f t="shared" si="23"/>
         <v>0.99945154472819675</v>
       </c>
       <c r="F204" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -6245,11 +6244,11 @@
         <v>1.5754973219372914E-6</v>
       </c>
       <c r="E205" s="8">
-        <f>D205/SUM($D$196:$D$211)*(1-$E$195)+E204</f>
+        <f t="shared" si="23"/>
         <v>0.99945305333359502</v>
       </c>
       <c r="F205" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1.5086053982704684E-6</v>
       </c>
     </row>
@@ -6267,11 +6266,11 @@
         <v>5.711984122171998E-4</v>
       </c>
       <c r="E206" s="8">
-        <f>D206/SUM($D$196:$D$211)*(1-$E$195)+E205</f>
+        <f t="shared" si="23"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="F206" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>5.4694666640475731E-4</v>
       </c>
     </row>
@@ -6289,11 +6288,11 @@
         <v>0</v>
       </c>
       <c r="E207" s="8">
-        <f>D207/SUM($D$196:$D$211)*(1-$E$195)+E206</f>
+        <f t="shared" si="23"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="F207" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -6311,11 +6310,11 @@
         <v>0</v>
       </c>
       <c r="E208" s="8">
-        <f>D208/SUM($D$196:$D$211)*(1-$E$195)+E207</f>
+        <f t="shared" si="23"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="F208" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -6333,11 +6332,11 @@
         <v>0</v>
       </c>
       <c r="E209" s="8">
-        <f>D209/SUM($D$196:$D$211)*(1-$E$195)+E208</f>
+        <f t="shared" si="23"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="F209" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -6355,11 +6354,11 @@
         <v>0</v>
       </c>
       <c r="E210" s="8">
-        <f>D210/SUM($D$196:$D$211)*(1-$E$195)+E209</f>
+        <f t="shared" si="23"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="F210" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -6377,11 +6376,11 @@
         <v>0</v>
       </c>
       <c r="E211" s="8">
-        <f>D211/SUM($D$196:$D$211)*(1-$E$195)+E210</f>
+        <f t="shared" si="23"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="F211" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G211" s="3"/>
@@ -6422,7 +6421,7 @@
         <v>7.375562097877264E-3</v>
       </c>
       <c r="E213" s="8">
-        <f>D213/SUM($D$212:$D$222)*$E$222+E212</f>
+        <f t="shared" ref="E213:E221" si="24">D213/SUM($D$212:$D$222)*$E$222+E212</f>
         <v>3.3938046923615698E-3</v>
       </c>
       <c r="F213" s="8">
@@ -6444,11 +6443,11 @@
         <v>1.8438905477523804E-2</v>
       </c>
       <c r="E214" s="8">
-        <f>D214/SUM($D$212:$D$222)*$E$222+E213</f>
+        <f t="shared" si="24"/>
         <v>4.9637277039249585E-3</v>
       </c>
       <c r="F214" s="8">
-        <f t="shared" ref="F214:F239" si="8">E214-E213</f>
+        <f t="shared" ref="F214:F239" si="25">E214-E213</f>
         <v>1.5699230115633887E-3</v>
       </c>
     </row>
@@ -6466,11 +6465,11 @@
         <v>4.9128443002700806E-2</v>
       </c>
       <c r="E215" s="8">
-        <f>D215/SUM($D$212:$D$222)*$E$222+E214</f>
+        <f t="shared" si="24"/>
         <v>9.1466155269704051E-3</v>
       </c>
       <c r="F215" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>4.1828878230454466E-3</v>
       </c>
     </row>
@@ -6488,11 +6487,11 @@
         <v>5.4394766688346863E-2</v>
       </c>
       <c r="E216" s="8">
-        <f>D216/SUM($D$212:$D$222)*$E$222+E215</f>
+        <f t="shared" si="24"/>
         <v>1.3777888030468553E-2</v>
       </c>
       <c r="F216" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>4.6312725034981482E-3</v>
       </c>
     </row>
@@ -6510,11 +6509,11 @@
         <v>7.0584289729595184E-2</v>
       </c>
       <c r="E217" s="8">
-        <f>D217/SUM($D$212:$D$222)*$E$222+E216</f>
+        <f t="shared" si="24"/>
         <v>1.9787566904110133E-2</v>
       </c>
       <c r="F217" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>6.0096788736415802E-3</v>
       </c>
     </row>
@@ -6532,11 +6531,11 @@
         <v>0.12630648910999298</v>
       </c>
       <c r="E218" s="8">
-        <f>D218/SUM($D$212:$D$222)*$E$222+E217</f>
+        <f t="shared" si="24"/>
         <v>3.0541538391477802E-2</v>
       </c>
       <c r="F218" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>1.0753971487367668E-2</v>
       </c>
     </row>
@@ -6554,11 +6553,11 @@
         <v>0.21942295134067535</v>
       </c>
       <c r="E219" s="8">
-        <f>D219/SUM($D$212:$D$222)*$E$222+E218</f>
+        <f t="shared" si="24"/>
         <v>4.9223620199141602E-2</v>
       </c>
       <c r="F219" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>1.86820818076638E-2</v>
       </c>
     </row>
@@ -6576,11 +6575,11 @@
         <v>0.13837248086929321</v>
       </c>
       <c r="E220" s="8">
-        <f>D220/SUM($D$212:$D$222)*$E$222+E219</f>
+        <f t="shared" si="24"/>
         <v>6.1004912865814082E-2</v>
       </c>
       <c r="F220" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>1.178129266667248E-2</v>
       </c>
     </row>
@@ -6598,11 +6597,11 @@
         <v>7.4798889458179474E-2</v>
       </c>
       <c r="E221" s="8">
-        <f>D221/SUM($D$212:$D$222)*$E$222+E220</f>
+        <f t="shared" si="24"/>
         <v>6.7373430668723921E-2</v>
       </c>
       <c r="F221" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>6.3685178029098399E-3</v>
       </c>
     </row>
@@ -6623,7 +6622,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F222" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>2.6265693312760852E-3</v>
       </c>
     </row>
@@ -6641,11 +6640,11 @@
         <v>6.4009800553321838E-2</v>
       </c>
       <c r="E223" s="8">
-        <f>D223/SUM($D$223:$D$239)*(1-$E$222)+E222</f>
+        <f t="shared" ref="E223:E239" si="26">D223/SUM($D$223:$D$239)*(1-$E$222)+E222</f>
         <v>0.40472867910342814</v>
       </c>
       <c r="F223" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>0.33472867910342813</v>
       </c>
     </row>
@@ -6663,11 +6662,11 @@
         <v>3.3073697239160538E-2</v>
       </c>
       <c r="E224" s="8">
-        <f>D224/SUM($D$223:$D$239)*(1-$E$222)+E223</f>
+        <f t="shared" si="26"/>
         <v>0.57768211583080409</v>
       </c>
       <c r="F224" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>0.17295343672737595</v>
       </c>
     </row>
@@ -6685,11 +6684,11 @@
         <v>3.3293694257736206E-2</v>
       </c>
       <c r="E225" s="8">
-        <f>D225/SUM($D$223:$D$239)*(1-$E$222)+E224</f>
+        <f t="shared" si="26"/>
         <v>0.75178599062856866</v>
       </c>
       <c r="F225" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>0.17410387479776457</v>
       </c>
     </row>
@@ -6707,11 +6706,11 @@
         <v>1.715899258852005E-2</v>
       </c>
       <c r="E226" s="8">
-        <f>D226/SUM($D$223:$D$239)*(1-$E$222)+E225</f>
+        <f t="shared" si="26"/>
         <v>0.8415161081145035</v>
       </c>
       <c r="F226" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>8.9730117485934846E-2</v>
       </c>
     </row>
@@ -6729,11 +6728,11 @@
         <v>1.7268499359488487E-2</v>
       </c>
       <c r="E227" s="8">
-        <f>D227/SUM($D$223:$D$239)*(1-$E$222)+E226</f>
+        <f t="shared" si="26"/>
         <v>0.93181887317131484</v>
       </c>
       <c r="F227" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>9.030276505681134E-2</v>
       </c>
     </row>
@@ -6751,11 +6750,11 @@
         <v>8.9112790301442146E-3</v>
       </c>
       <c r="E228" s="8">
-        <f>D228/SUM($D$223:$D$239)*(1-$E$222)+E227</f>
+        <f t="shared" si="26"/>
         <v>0.97841893492900534</v>
       </c>
       <c r="F228" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>4.6600061757690492E-2</v>
       </c>
     </row>
@@ -6773,11 +6772,11 @@
         <v>1.9260735716670752E-3</v>
       </c>
       <c r="E229" s="8">
-        <f>D229/SUM($D$223:$D$239)*(1-$E$222)+E228</f>
+        <f t="shared" si="26"/>
         <v>0.98849101853068877</v>
       </c>
       <c r="F229" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>1.0072083601683435E-2</v>
       </c>
     </row>
@@ -6795,11 +6794,11 @@
         <v>1.3782742898911238E-3</v>
       </c>
       <c r="E230" s="8">
-        <f>D230/SUM($D$223:$D$239)*(1-$E$222)+E229</f>
+        <f t="shared" si="26"/>
         <v>0.99569847627168195</v>
       </c>
       <c r="F230" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>7.2074577409931839E-3</v>
       </c>
     </row>
@@ -6817,11 +6816,11 @@
         <v>2.4980178568512201E-4</v>
       </c>
       <c r="E231" s="8">
-        <f>D231/SUM($D$223:$D$239)*(1-$E$222)+E230</f>
+        <f t="shared" si="26"/>
         <v>0.99700477344863381</v>
       </c>
       <c r="F231" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>1.3062971769518539E-3</v>
       </c>
     </row>
@@ -6839,11 +6838,11 @@
         <v>0</v>
       </c>
       <c r="E232" s="8">
-        <f>D232/SUM($D$223:$D$239)*(1-$E$222)+E231</f>
+        <f t="shared" si="26"/>
         <v>0.99700477344863381</v>
       </c>
       <c r="F232" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -6861,11 +6860,11 @@
         <v>1.5754973219372914E-6</v>
       </c>
       <c r="E233" s="8">
-        <f>D233/SUM($D$223:$D$239)*(1-$E$222)+E232</f>
+        <f t="shared" si="26"/>
         <v>0.9970130122516444</v>
       </c>
       <c r="F233" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>8.2388030105962073E-6</v>
       </c>
     </row>
@@ -6883,11 +6882,11 @@
         <v>5.711984122171998E-4</v>
       </c>
       <c r="E234" s="8">
-        <f>D234/SUM($D$223:$D$239)*(1-$E$222)+E233</f>
+        <f t="shared" si="26"/>
         <v>0.99999999999999967</v>
       </c>
       <c r="F234" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>2.9869877483552632E-3</v>
       </c>
     </row>
@@ -6905,11 +6904,11 @@
         <v>0</v>
       </c>
       <c r="E235" s="8">
-        <f>D235/SUM($D$223:$D$239)*(1-$E$222)+E234</f>
+        <f t="shared" si="26"/>
         <v>0.99999999999999967</v>
       </c>
       <c r="F235" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -6927,11 +6926,11 @@
         <v>0</v>
       </c>
       <c r="E236" s="8">
-        <f>D236/SUM($D$223:$D$239)*(1-$E$222)+E235</f>
+        <f t="shared" si="26"/>
         <v>0.99999999999999967</v>
       </c>
       <c r="F236" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -6949,11 +6948,11 @@
         <v>0</v>
       </c>
       <c r="E237" s="8">
-        <f>D237/SUM($D$223:$D$239)*(1-$E$222)+E236</f>
+        <f t="shared" si="26"/>
         <v>0.99999999999999967</v>
       </c>
       <c r="F237" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -6971,11 +6970,11 @@
         <v>0</v>
       </c>
       <c r="E238" s="8">
-        <f>D238/SUM($D$223:$D$239)*(1-$E$222)+E237</f>
+        <f t="shared" si="26"/>
         <v>0.99999999999999967</v>
       </c>
       <c r="F238" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -6993,11 +6992,11 @@
         <v>0</v>
       </c>
       <c r="E239" s="8">
-        <f>D239/SUM($D$223:$D$239)*(1-$E$222)+E238</f>
+        <f t="shared" si="26"/>
         <v>0.99999999999999967</v>
       </c>
       <c r="F239" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G239" s="3"/>

--- a/cdf_star_by_state_18_19new1.xlsx
+++ b/cdf_star_by_state_18_19new1.xlsx
@@ -94,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +113,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -126,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -138,6 +144,8 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1673,8 +1681,8 @@
   <dimension ref="A1:L239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2350,12 +2358,12 @@
         <v>7.4037136510014534E-3</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:E34" si="3">D28/SUM($D$27:$D$35)*$E$35+E27</f>
-        <v>1.5913018296931706E-2</v>
+        <f>D28/SUM($D$27:$D$36)*$E$36+E27</f>
+        <v>1.48817923361724E-2</v>
       </c>
       <c r="F28" s="8">
         <f>E28-E27</f>
-        <v>8.5093046459302525E-3</v>
+        <v>7.4780786851709469E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2372,12 +2380,12 @@
         <v>1.1105570010840893E-2</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="3"/>
-        <v>2.8676974730628947E-2</v>
+        <f t="shared" ref="E29:E35" si="3">D29/SUM($D$27:$D$36)*$E$36+E28</f>
+        <v>2.6098909893590296E-2</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" ref="F29:F51" si="4">E29-E28</f>
-        <v>1.2763956433697241E-2</v>
+        <v>1.1217117557417895E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2395,11 +2403,11 @@
       </c>
       <c r="E30" s="8">
         <f t="shared" si="3"/>
-        <v>5.4205549102921205E-2</v>
+        <v>4.8533726346841152E-2</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" si="4"/>
-        <v>2.5528574372292258E-2</v>
+        <v>2.2434816453250857E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2417,11 +2425,11 @@
       </c>
       <c r="E31" s="8">
         <f t="shared" si="3"/>
-        <v>0.1052630960349199</v>
+        <v>9.3403709185204353E-2</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" si="4"/>
-        <v>5.1057546931998696E-2</v>
+        <v>4.4869982838363201E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2439,11 +2447,11 @@
       </c>
       <c r="E32" s="8">
         <f t="shared" si="3"/>
-        <v>0.20312010213910847</v>
+        <v>0.17940161641636287</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" si="4"/>
-        <v>9.7857006104188571E-2</v>
+        <v>8.5997907231158521E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2461,11 +2469,11 @@
       </c>
       <c r="E33" s="8">
         <f t="shared" si="3"/>
-        <v>0.36905822468349325</v>
+        <v>0.32523002295366243</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="4"/>
-        <v>0.16593812254438478</v>
+        <v>0.14582840653729956</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2483,11 +2491,11 @@
       </c>
       <c r="E34" s="8">
         <f t="shared" si="3"/>
-        <v>0.62089799458181294</v>
+        <v>0.54654982447889</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" si="4"/>
-        <v>0.25183976989831969</v>
+        <v>0.22131980152522757</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2503,16 +2511,17 @@
       <c r="D35" s="2">
         <v>0.22012527287006378</v>
       </c>
-      <c r="E35" s="5">
-        <v>0.875</v>
+      <c r="E35" s="8">
+        <f t="shared" si="3"/>
+        <v>0.7688860990448847</v>
       </c>
       <c r="F35" s="8">
         <f t="shared" si="4"/>
-        <v>0.25410200541818706</v>
+        <v>0.2223362745659947</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="A36" s="11">
         <v>16</v>
       </c>
       <c r="B36" t="s">
@@ -2524,18 +2533,17 @@
       <c r="D36" s="2">
         <v>0.10498503595590591</v>
       </c>
-      <c r="E36" s="8">
-        <f t="shared" ref="E36:E51" si="5">D36/SUM($D$36:$D$51)*(1-$E$35)+E35</f>
-        <v>0.92998062350208355</v>
+      <c r="E36" s="5">
+        <v>0.875</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" si="4"/>
-        <v>5.4980623502083548E-2</v>
+        <v>0.1061139009551153</v>
       </c>
       <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="12">
         <v>17</v>
       </c>
       <c r="B37" t="s">
@@ -2548,12 +2556,12 @@
         <v>5.3284000605344772E-2</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="5"/>
-        <v>0.95788543440482676</v>
+        <f>D37/SUM($D$37:$D$51)*(1-$E$36)+E36</f>
+        <v>0.92481622998237778</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" si="4"/>
-        <v>2.7904810902743216E-2</v>
+        <v>4.981622998237778E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2570,12 +2578,12 @@
         <v>3.9279080927371979E-2</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="5"/>
-        <v>0.97845587418524216</v>
+        <f t="shared" ref="E38:E51" si="5">D38/SUM($D$37:$D$51)*(1-$E$36)+E37</f>
+        <v>0.96153899303966439</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" si="4"/>
-        <v>2.0570439780415395E-2</v>
+        <v>3.6722763057286611E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2593,11 +2601,11 @@
       </c>
       <c r="E39" s="8">
         <f t="shared" si="5"/>
-        <v>0.98988838419033609</v>
+        <v>0.98194853996956688</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" si="4"/>
-        <v>1.1432510005093932E-2</v>
+        <v>2.0409546929902489E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2615,11 +2623,11 @@
       </c>
       <c r="E40" s="8">
         <f t="shared" si="5"/>
-        <v>0.99381357626649758</v>
+        <v>0.98895587185483136</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" si="4"/>
-        <v>3.9251920761614878E-3</v>
+        <v>7.0073318852644784E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2637,11 +2645,11 @@
       </c>
       <c r="E41" s="8">
         <f t="shared" si="5"/>
-        <v>0.99522975178716977</v>
+        <v>0.99148405689357255</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" si="4"/>
-        <v>1.4161755206721915E-3</v>
+        <v>2.528185038741193E-3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2659,11 +2667,11 @@
       </c>
       <c r="E42" s="8">
         <f t="shared" si="5"/>
-        <v>0.99858961490216203</v>
+        <v>0.9974821521406293</v>
       </c>
       <c r="F42" s="8">
         <f t="shared" si="4"/>
-        <v>3.3598631149922564E-3</v>
+        <v>5.998095247056745E-3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2681,11 +2689,11 @@
       </c>
       <c r="E43" s="8">
         <f t="shared" si="5"/>
-        <v>0.99861665531526289</v>
+        <v>0.99753042523026048</v>
       </c>
       <c r="F43" s="8">
         <f t="shared" si="4"/>
-        <v>2.7040413100865024E-5</v>
+        <v>4.8273089631178934E-5</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2703,11 +2711,11 @@
       </c>
       <c r="E44" s="8">
         <f t="shared" si="5"/>
-        <v>0.99888454769609281</v>
+        <v>0.9980086720996072</v>
       </c>
       <c r="F44" s="8">
         <f t="shared" si="4"/>
-        <v>2.6789238082991496E-4</v>
+        <v>4.7824686934672123E-4</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2725,11 +2733,11 @@
       </c>
       <c r="E45" s="8">
         <f t="shared" si="5"/>
-        <v>0.99907255706286147</v>
+        <v>0.99834431020467906</v>
       </c>
       <c r="F45" s="8">
         <f t="shared" si="4"/>
-        <v>1.8800936676865998E-4</v>
+        <v>3.3563810507186709E-4</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2747,11 +2755,11 @@
       </c>
       <c r="E46" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="F46" s="8">
         <f t="shared" si="4"/>
-        <v>9.2744293713853398E-4</v>
+        <v>1.6556897953207139E-3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2769,7 +2777,7 @@
       </c>
       <c r="E47" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="F47" s="8">
         <f t="shared" si="4"/>
@@ -2791,7 +2799,7 @@
       </c>
       <c r="E48" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="F48" s="8">
         <f t="shared" si="4"/>
@@ -2813,7 +2821,7 @@
       </c>
       <c r="E49" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="F49" s="8">
         <f t="shared" si="4"/>
@@ -2835,7 +2843,7 @@
       </c>
       <c r="E50" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="F50" s="8">
         <f t="shared" si="4"/>
@@ -2858,7 +2866,7 @@
       </c>
       <c r="E51" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="F51" s="8">
         <f t="shared" si="4"/>
@@ -5189,12 +5197,12 @@
         <v>7.375562097877264E-3</v>
       </c>
       <c r="E157" s="8">
-        <f t="shared" ref="E157:E166" si="18">D157/SUM($D$156:$D$167)*$E$167+E156</f>
-        <v>1.042299010703239E-2</v>
+        <f>D157/SUM($D$156:$D$168)*$E$168+E156</f>
+        <v>1.01474905173232E-2</v>
       </c>
       <c r="F157" s="8">
         <f>E157-E156</f>
-        <v>7.6571546113667205E-3</v>
+        <v>7.3816550216575308E-3</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -5211,12 +5219,12 @@
         <v>1.8438905477523804E-2</v>
       </c>
       <c r="E158" s="8">
-        <f t="shared" si="18"/>
-        <v>2.9565876877169103E-2</v>
+        <f t="shared" ref="E158:E167" si="18">D158/SUM($D$156:$D$168)*$E$168+E157</f>
+        <v>2.860162830449001E-2</v>
       </c>
       <c r="F158" s="8">
         <f t="shared" ref="F158:F183" si="19">E158-E157</f>
-        <v>1.9142886770136713E-2</v>
+        <v>1.845413778716681E-2</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -5234,11 +5242,11 @@
       </c>
       <c r="E159" s="8">
         <f t="shared" si="18"/>
-        <v>8.057000088768565E-2</v>
+        <v>7.7770656126989801E-2</v>
       </c>
       <c r="F159" s="8">
         <f t="shared" si="19"/>
-        <v>5.1004124010516544E-2</v>
+        <v>4.9169027822499795E-2</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -5256,11 +5264,11 @@
       </c>
       <c r="E160" s="8">
         <f t="shared" si="18"/>
-        <v>0.13704151221856661</v>
+        <v>0.13221035812509058</v>
       </c>
       <c r="F160" s="8">
         <f t="shared" si="19"/>
-        <v>5.6471511330880964E-2</v>
+        <v>5.4439701998100776E-2</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -5278,11 +5286,11 @@
       </c>
       <c r="E161" s="8">
         <f t="shared" si="18"/>
-        <v>0.21032064842820772</v>
+        <v>0.20285295726781244</v>
       </c>
       <c r="F161" s="8">
         <f t="shared" si="19"/>
-        <v>7.3279136209641105E-2</v>
+        <v>7.0642599142721862E-2</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -5300,11 +5308,11 @@
       </c>
       <c r="E162" s="8">
         <f t="shared" si="18"/>
-        <v>0.34144940888057718</v>
+        <v>0.3292637876877812</v>
       </c>
       <c r="F162" s="8">
         <f t="shared" si="19"/>
-        <v>0.13112876045236946</v>
+        <v>0.12641083041996876</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -5322,11 +5330,11 @@
       </c>
       <c r="E163" s="8">
         <f t="shared" si="18"/>
-        <v>0.56924973669308487</v>
+        <v>0.54886800349351272</v>
       </c>
       <c r="F163" s="8">
         <f t="shared" si="19"/>
-        <v>0.2278003278125077</v>
+        <v>0.21960421580573153</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -5344,11 +5352,11 @@
       </c>
       <c r="E164" s="8">
         <f t="shared" si="18"/>
-        <v>0.71290515792253994</v>
+        <v>0.68735479334265515</v>
       </c>
       <c r="F164" s="8">
         <f t="shared" si="19"/>
-        <v>0.14365542122945507</v>
+        <v>0.13848678984914242</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -5366,11 +5374,11 @@
       </c>
       <c r="E165" s="8">
         <f t="shared" si="18"/>
-        <v>0.7905598035941761</v>
+        <v>0.76221547387875777</v>
       </c>
       <c r="F165" s="8">
         <f t="shared" si="19"/>
-        <v>7.7654645671636158E-2</v>
+        <v>7.486068053610262E-2</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -5388,11 +5396,11 @@
       </c>
       <c r="E166" s="8">
         <f t="shared" si="18"/>
-        <v>0.8534407640347923</v>
+        <v>0.82283401705327974</v>
       </c>
       <c r="F166" s="8">
         <f t="shared" si="19"/>
-        <v>6.2880960440616196E-2</v>
+        <v>6.0618543174521977E-2</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -5408,16 +5416,17 @@
       <c r="D167" s="2">
         <v>6.4009800553321838E-2</v>
       </c>
-      <c r="E167" s="5">
-        <v>0.92</v>
+      <c r="E167" s="8">
+        <f t="shared" si="18"/>
+        <v>0.88689669585923991</v>
       </c>
       <c r="F167" s="8">
         <f t="shared" si="19"/>
-        <v>6.6559235965207741E-2</v>
+        <v>6.4062678805960172E-2</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="7">
+      <c r="A168" s="11">
         <v>16</v>
       </c>
       <c r="B168" t="s">
@@ -5429,17 +5438,16 @@
       <c r="D168" s="2">
         <v>3.3073697239160538E-2</v>
       </c>
-      <c r="E168" s="8">
-        <f t="shared" ref="E168:E183" si="20">D168/SUM($D$168:$D$183)*(1-$E$167)+E167</f>
-        <v>0.94324364445670006</v>
+      <c r="E168" s="5">
+        <v>0.92</v>
       </c>
       <c r="F168" s="8">
         <f t="shared" si="19"/>
-        <v>2.3243644456700019E-2</v>
+        <v>3.3103304140760126E-2</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
+      <c r="A169" s="12">
         <v>17</v>
       </c>
       <c r="B169" t="s">
@@ -5452,12 +5460,12 @@
         <v>3.3293694257736206E-2</v>
       </c>
       <c r="E169" s="8">
-        <f t="shared" si="20"/>
-        <v>0.96664189915985455</v>
+        <f>D169/SUM($D$169:$D$183)*(1-$E$168)+E168</f>
+        <v>0.95298063024544089</v>
       </c>
       <c r="F169" s="8">
         <f t="shared" si="19"/>
-        <v>2.3398254703154486E-2</v>
+        <v>3.2980630245440845E-2</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -5474,12 +5482,12 @@
         <v>1.715899258852005E-2</v>
       </c>
       <c r="E170" s="8">
-        <f t="shared" si="20"/>
-        <v>0.97870095382431066</v>
+        <f t="shared" ref="E170:E183" si="20">D170/SUM($D$169:$D$183)*(1-$E$168)+E169</f>
+        <v>0.96997827507167533</v>
       </c>
       <c r="F170" s="8">
         <f t="shared" si="19"/>
-        <v>1.2059054664456115E-2</v>
+        <v>1.6997644826234448E-2</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -5497,11 +5505,11 @@
       </c>
       <c r="E171" s="8">
         <f t="shared" si="20"/>
-        <v>0.99083696802648002</v>
+        <v>0.98708439696551065</v>
       </c>
       <c r="F171" s="8">
         <f t="shared" si="19"/>
-        <v>1.2136014202169365E-2</v>
+        <v>1.7106121893835313E-2</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -5519,11 +5527,11 @@
       </c>
       <c r="E172" s="8">
         <f t="shared" si="20"/>
-        <v>0.99709966674846828</v>
+        <v>0.99591188232751271</v>
       </c>
       <c r="F172" s="8">
         <f t="shared" si="19"/>
-        <v>6.2626987219882579E-3</v>
+        <v>8.8274853620020632E-3</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -5541,11 +5549,11 @@
       </c>
       <c r="E173" s="8">
         <f t="shared" si="20"/>
-        <v>0.99845327922709581</v>
+        <v>0.99781984483239172</v>
       </c>
       <c r="F173" s="8">
         <f t="shared" si="19"/>
-        <v>1.3536124786275305E-3</v>
+        <v>1.9079625048790128E-3</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -5563,11 +5571,11 @@
       </c>
       <c r="E174" s="8">
         <f t="shared" si="20"/>
-        <v>0.99942190747952198</v>
+        <v>0.99918515906816885</v>
       </c>
       <c r="F174" s="8">
         <f t="shared" si="19"/>
-        <v>9.6862825242616246E-4</v>
+        <v>1.3653142357771264E-3</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -5585,11 +5593,11 @@
       </c>
       <c r="E175" s="8">
         <f t="shared" si="20"/>
-        <v>0.99959746402069505</v>
+        <v>0.99943261194211408</v>
       </c>
       <c r="F175" s="8">
         <f t="shared" si="19"/>
-        <v>1.7555654117307196E-4</v>
+        <v>2.4745287394523086E-4</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -5607,7 +5615,7 @@
       </c>
       <c r="E176" s="8">
         <f t="shared" si="20"/>
-        <v>0.99959746402069505</v>
+        <v>0.99943261194211408</v>
       </c>
       <c r="F176" s="8">
         <f t="shared" si="19"/>
@@ -5629,11 +5637,11 @@
       </c>
       <c r="E177" s="8">
         <f t="shared" si="20"/>
-        <v>0.99959857125401486</v>
+        <v>0.99943417262487355</v>
       </c>
       <c r="F177" s="8">
         <f t="shared" si="19"/>
-        <v>1.1072333198081097E-6</v>
+        <v>1.5606827594716322E-6</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -5655,7 +5663,7 @@
       </c>
       <c r="F178" s="8">
         <f t="shared" si="19"/>
-        <v>4.01428745985144E-4</v>
+        <v>5.6582737512644865E-4</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -5805,12 +5813,12 @@
         <v>7.375562097877264E-3</v>
       </c>
       <c r="E185" s="8">
-        <f t="shared" ref="E185:E194" si="21">D185/SUM($D$184:$D$195)*$E$195+E184</f>
-        <v>1.0181623276891481E-2</v>
+        <f>D185/SUM($D$184:$D$196)*$E$196+E184</f>
+        <v>9.9148079133796474E-3</v>
       </c>
       <c r="F185" s="8">
         <f>E185-E184</f>
-        <v>7.4157877812258115E-3</v>
+        <v>7.148972417713978E-3</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -5827,12 +5835,12 @@
         <v>1.8438905477523804E-2</v>
       </c>
       <c r="E186" s="8">
-        <f t="shared" si="21"/>
-        <v>2.8721092964056491E-2</v>
+        <f t="shared" ref="E186:E195" si="21">D186/SUM($D$184:$D$196)*$E$196+E185</f>
+        <v>2.7787239183342284E-2</v>
       </c>
       <c r="F186" s="8">
         <f t="shared" ref="F186:F211" si="22">E186-E185</f>
-        <v>1.8539469687165008E-2</v>
+        <v>1.7872431269962637E-2</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -5850,11 +5858,11 @@
       </c>
       <c r="E187" s="8">
         <f t="shared" si="21"/>
-        <v>7.8117478282937192E-2</v>
+        <v>7.5406373737524152E-2</v>
       </c>
       <c r="F187" s="8">
         <f t="shared" si="22"/>
-        <v>4.9396385318880701E-2</v>
+        <v>4.7619134554181868E-2</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -5872,11 +5880,11 @@
       </c>
       <c r="E188" s="8">
         <f t="shared" si="21"/>
-        <v>0.13280890936534473</v>
+        <v>0.12813004165090219</v>
       </c>
       <c r="F188" s="8">
         <f t="shared" si="22"/>
-        <v>5.4691431082407538E-2</v>
+        <v>5.2723667913378042E-2</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -5894,11 +5902,11 @@
       </c>
       <c r="E189" s="8">
         <f t="shared" si="21"/>
-        <v>0.20377815975968194</v>
+        <v>0.1965458632119513</v>
       </c>
       <c r="F189" s="8">
         <f t="shared" si="22"/>
-        <v>7.0969250394337213E-2</v>
+        <v>6.8415821561049112E-2</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -5916,11 +5924,11 @@
       </c>
       <c r="E190" s="8">
         <f t="shared" si="21"/>
-        <v>0.33077351363257451</v>
+        <v>0.31897200441216017</v>
       </c>
       <c r="F190" s="8">
         <f t="shared" si="22"/>
-        <v>0.12699535387289257</v>
+        <v>0.12242614120020887</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -5938,11 +5946,11 @@
       </c>
       <c r="E191" s="8">
         <f t="shared" si="21"/>
-        <v>0.55139317893794881</v>
+        <v>0.53165391341531965</v>
       </c>
       <c r="F191" s="8">
         <f t="shared" si="22"/>
-        <v>0.2206196653053743</v>
+        <v>0.21268190900315948</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -5960,11 +5968,11 @@
       </c>
       <c r="E192" s="8">
         <f t="shared" si="21"/>
-        <v>0.69052033145473635</v>
+        <v>0.66577535880182603</v>
       </c>
       <c r="F192" s="8">
         <f t="shared" si="22"/>
-        <v>0.13912715251678753</v>
+        <v>0.13412144538650639</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -5982,11 +5990,11 @@
       </c>
       <c r="E193" s="8">
         <f t="shared" si="21"/>
-        <v>0.76572716764324489</v>
+        <v>0.73827630049494286</v>
       </c>
       <c r="F193" s="8">
         <f t="shared" si="22"/>
-        <v>7.5206836188508541E-2</v>
+        <v>7.2500941693116827E-2</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -6004,11 +6012,11 @@
       </c>
       <c r="E194" s="8">
         <f t="shared" si="21"/>
-        <v>0.82662601085258081</v>
+        <v>0.79698404176505055</v>
       </c>
       <c r="F194" s="8">
         <f t="shared" si="22"/>
-        <v>6.0898843209335918E-2</v>
+        <v>5.8707741270107694E-2</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -6024,16 +6032,17 @@
       <c r="D195" s="2">
         <v>6.4009800553321838E-2</v>
       </c>
-      <c r="E195" s="5">
-        <v>0.89100000000000001</v>
+      <c r="E195" s="8">
+        <f t="shared" si="21"/>
+        <v>0.85902735352169246</v>
       </c>
       <c r="F195" s="8">
         <f t="shared" si="22"/>
-        <v>6.4373989147419208E-2</v>
+        <v>6.2043311756641906E-2</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="7">
+      <c r="A196" s="11">
         <v>16</v>
       </c>
       <c r="B196" t="s">
@@ -6045,17 +6054,16 @@
       <c r="D196" s="2">
         <v>3.3073697239160538E-2</v>
       </c>
-      <c r="E196" s="8">
-        <f t="shared" ref="E196:E211" si="23">D196/SUM($D$196:$D$211)*(1-$E$195)+E195</f>
-        <v>0.92266946557225371</v>
+      <c r="E196" s="5">
+        <v>0.89100000000000001</v>
       </c>
       <c r="F196" s="8">
         <f t="shared" si="22"/>
-        <v>3.1669465572253697E-2</v>
+        <v>3.1972646478307554E-2</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
+      <c r="A197" s="12">
         <v>17</v>
       </c>
       <c r="B197" t="s">
@@ -6068,12 +6076,12 @@
         <v>3.3293694257736206E-2</v>
       </c>
       <c r="E197" s="8">
-        <f t="shared" si="23"/>
-        <v>0.95454958760530162</v>
+        <f>D197/SUM($D$197:$D$211)*(1-$E$196)+E196</f>
+        <v>0.93593610870941313</v>
       </c>
       <c r="F197" s="8">
         <f t="shared" si="22"/>
-        <v>3.1880122033047908E-2</v>
+        <v>4.4936108709413114E-2</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -6090,12 +6098,12 @@
         <v>1.715899258852005E-2</v>
       </c>
       <c r="E198" s="8">
-        <f t="shared" si="23"/>
-        <v>0.97098004958562312</v>
+        <f t="shared" ref="E198:E211" si="23">D198/SUM($D$197:$D$211)*(1-$E$196)+E197</f>
+        <v>0.95909539978515745</v>
       </c>
       <c r="F198" s="8">
         <f t="shared" si="22"/>
-        <v>1.6430461980321498E-2</v>
+        <v>2.3159291075744326E-2</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -6113,11 +6121,11 @@
       </c>
       <c r="E199" s="8">
         <f t="shared" si="23"/>
-        <v>0.98751536893607883</v>
+        <v>0.98240249086550813</v>
       </c>
       <c r="F199" s="8">
         <f t="shared" si="22"/>
-        <v>1.6535319350455713E-2</v>
+        <v>2.3307091080350673E-2</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -6135,11 +6143,11 @@
       </c>
       <c r="E200" s="8">
         <f t="shared" si="23"/>
-        <v>0.99604829594478783</v>
+        <v>0.99442993967123583</v>
       </c>
       <c r="F200" s="8">
         <f t="shared" si="22"/>
-        <v>8.5329270087090014E-3</v>
+        <v>1.2027448805727703E-2</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -6157,11 +6165,11 @@
       </c>
       <c r="E201" s="8">
         <f t="shared" si="23"/>
-        <v>0.99789259294691779</v>
+        <v>0.99702953858413357</v>
       </c>
       <c r="F201" s="8">
         <f t="shared" si="22"/>
-        <v>1.8442970021299576E-3</v>
+        <v>2.5995989128977381E-3</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -6179,11 +6187,11 @@
       </c>
       <c r="E202" s="8">
         <f t="shared" si="23"/>
-        <v>0.99921234894084843</v>
+        <v>0.9988897792303798</v>
       </c>
       <c r="F202" s="8">
         <f t="shared" si="22"/>
-        <v>1.319755993930638E-3</v>
+        <v>1.8602406462462362E-3</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -6201,11 +6209,11 @@
       </c>
       <c r="E203" s="8">
         <f t="shared" si="23"/>
-        <v>0.99945154472819675</v>
+        <v>0.99922693377113025</v>
       </c>
       <c r="F203" s="8">
         <f t="shared" si="22"/>
-        <v>2.3919578734832303E-4</v>
+        <v>3.3715454075045059E-4</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -6223,7 +6231,7 @@
       </c>
       <c r="E204" s="8">
         <f t="shared" si="23"/>
-        <v>0.99945154472819675</v>
+        <v>0.99922693377113025</v>
       </c>
       <c r="F204" s="8">
         <f t="shared" si="22"/>
@@ -6245,11 +6253,11 @@
       </c>
       <c r="E205" s="8">
         <f t="shared" si="23"/>
-        <v>0.99945305333359502</v>
+        <v>0.99922906020139002</v>
       </c>
       <c r="F205" s="8">
         <f t="shared" si="22"/>
-        <v>1.5086053982704684E-6</v>
+        <v>2.1264302597634455E-6</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -6267,11 +6275,11 @@
       </c>
       <c r="E206" s="8">
         <f t="shared" si="23"/>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F206" s="8">
         <f t="shared" si="22"/>
-        <v>5.4694666640475731E-4</v>
+        <v>7.7093979860987094E-4</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -6289,7 +6297,7 @@
       </c>
       <c r="E207" s="8">
         <f t="shared" si="23"/>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F207" s="8">
         <f t="shared" si="22"/>
@@ -6311,7 +6319,7 @@
       </c>
       <c r="E208" s="8">
         <f t="shared" si="23"/>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F208" s="8">
         <f t="shared" si="22"/>
@@ -6333,7 +6341,7 @@
       </c>
       <c r="E209" s="8">
         <f t="shared" si="23"/>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F209" s="8">
         <f t="shared" si="22"/>
@@ -6355,7 +6363,7 @@
       </c>
       <c r="E210" s="8">
         <f t="shared" si="23"/>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F210" s="8">
         <f t="shared" si="22"/>
@@ -6377,7 +6385,7 @@
       </c>
       <c r="E211" s="8">
         <f t="shared" si="23"/>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F211" s="8">
         <f t="shared" si="22"/>
@@ -6647,6 +6655,7 @@
         <f t="shared" si="25"/>
         <v>0.33472867910342813</v>
       </c>
+      <c r="G223" s="8"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
